--- a/BackTest/2019-10-26 BackTest ETH.xlsx
+++ b/BackTest/2019-10-26 BackTest ETH.xlsx
@@ -451,20 +451,14 @@
         <v>196680</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>196500</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>196620</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>196400</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>196520</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>196300</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>196440</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>196300</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>196360</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>196500</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>196380</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>196600</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>196400</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>196400</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>196440</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>196300</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>196440</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>196400</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>196420</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>196500</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>196460</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>196300</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>196440</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>196400</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>196460</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>196300</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>196420</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>196500</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>196440</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>196400</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>196380</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>196300</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>196340</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>196200</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>196240</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>196100</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>196220</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>196100</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>196120</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>196200</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>196060</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>196100</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>196100</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>196000</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>196200</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>196200</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>196260</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>196500</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>196300</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>196200</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>196400</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>196500</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>196440</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>196600</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>196420</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>196500</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>196400</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>196400</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>196440</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>196400</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>196420</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>196400</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>196400</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>196600</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>196460</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>196600</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>196540</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>196800</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>196660</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>196800</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>196760</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>197000</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>196880</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>197000</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>196920</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>196900</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>196880</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>196800</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>196860</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>196700</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2091,20 +1851,14 @@
         <v>196880</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>196900</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2132,20 +1886,14 @@
         <v>196860</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>197100</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2173,20 +1921,14 @@
         <v>196880</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>196900</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,20 +1956,14 @@
         <v>197100</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>197100</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,20 +1991,14 @@
         <v>197200</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>197600</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,20 +2026,14 @@
         <v>197260</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>197000</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2337,20 +2061,14 @@
         <v>197320</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>197100</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2378,20 +2096,14 @@
         <v>197420</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>197200</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2419,20 +2131,14 @@
         <v>197320</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>197600</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,20 +2166,14 @@
         <v>197280</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>197200</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2501,20 +2201,14 @@
         <v>197260</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>197000</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2542,20 +2236,14 @@
         <v>197180</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>197200</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2583,20 +2271,14 @@
         <v>197160</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>196800</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2624,20 +2306,14 @@
         <v>197100</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>197000</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2665,20 +2341,14 @@
         <v>197140</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>197400</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2706,20 +2376,14 @@
         <v>197140</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>197500</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2747,20 +2411,14 @@
         <v>197240</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>197200</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2788,20 +2446,14 @@
         <v>197320</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>197300</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2829,20 +2481,14 @@
         <v>197420</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>197600</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2870,20 +2516,14 @@
         <v>197520</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>197600</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2911,20 +2551,14 @@
         <v>197640</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>197900</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2952,20 +2586,14 @@
         <v>197820</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>197800</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2993,20 +2621,14 @@
         <v>197860</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>198100</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3034,20 +2656,14 @@
         <v>198180</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>198000</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3075,20 +2691,14 @@
         <v>198640</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>199000</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3116,20 +2726,14 @@
         <v>199820</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>200500</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3164,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3203,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3242,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3281,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3359,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3398,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3437,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3476,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3515,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3554,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3593,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3632,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3671,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3710,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3749,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3788,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3827,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3866,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3905,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3944,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3983,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4022,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4061,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4100,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4139,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4178,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4217,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4256,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4334,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4369,15 +3849,11 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4451,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4490,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4529,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4568,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4646,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4763,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4802,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4880,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4919,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4958,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4997,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5036,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5075,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5114,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5153,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5192,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5231,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5270,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5309,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5348,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5426,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5465,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5504,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5543,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5582,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5621,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5738,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5777,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5933,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5972,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6050,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6089,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6128,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6167,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6206,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6284,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6323,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6362,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6401,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6440,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6479,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6518,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6557,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6596,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6635,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6674,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6713,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6752,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6791,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6830,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6869,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6908,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6947,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6986,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7025,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7064,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7103,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7181,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7220,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7259,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7337,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7376,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7415,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7454,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7493,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7532,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7571,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7610,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7649,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7766,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7805,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7844,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7883,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7922,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7961,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8000,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8039,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8078,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8117,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8156,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8195,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8234,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8266,16 +7346,18 @@
         <v>207860</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>207400</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -8305,12 +7387,14 @@
         <v>207680</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>207600</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -8344,12 +7428,14 @@
         <v>207700</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>207500</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -8383,12 +7469,14 @@
         <v>207800</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>208000</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -8422,12 +7510,14 @@
         <v>208020</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>208500</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -8461,12 +7551,14 @@
         <v>208240</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>208500</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -8500,12 +7592,14 @@
         <v>208600</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>208700</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -22699,16 +21793,18 @@
         <v>0</v>
       </c>
       <c r="I569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M569" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M569" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -22736,11 +21832,15 @@
         <v>0</v>
       </c>
       <c r="I570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -22775,7 +21875,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -22806,11 +21910,15 @@
         <v>0</v>
       </c>
       <c r="I572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -22845,10 +21953,12 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
-      <c r="M573" t="n">
-        <v>1</v>
-      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -23926,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
@@ -40793,14 +39903,20 @@
         <v>206780</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1086" t="n">
         <v>0</v>
       </c>
-      <c r="J1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>207000</v>
+      </c>
       <c r="K1086" t="inlineStr"/>
-      <c r="L1086" t="inlineStr"/>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M1086" t="n">
         <v>1</v>
       </c>
@@ -40835,7 +39951,11 @@
       </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr"/>
-      <c r="L1087" t="inlineStr"/>
+      <c r="L1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1087" t="n">
         <v>1</v>
       </c>
@@ -40870,7 +39990,11 @@
       </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr"/>
-      <c r="L1088" t="inlineStr"/>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1088" t="n">
         <v>1</v>
       </c>
@@ -40905,7 +40029,11 @@
       </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr"/>
-      <c r="L1089" t="inlineStr"/>
+      <c r="L1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1089" t="n">
         <v>1</v>
       </c>
@@ -40940,7 +40068,11 @@
       </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr"/>
-      <c r="L1090" t="inlineStr"/>
+      <c r="L1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1090" t="n">
         <v>1</v>
       </c>
@@ -40975,7 +40107,11 @@
       </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr"/>
-      <c r="L1091" t="inlineStr"/>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1091" t="n">
         <v>1</v>
       </c>
@@ -41010,7 +40146,11 @@
       </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr"/>
-      <c r="L1092" t="inlineStr"/>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1092" t="n">
         <v>1</v>
       </c>
@@ -41045,7 +40185,11 @@
       </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr"/>
-      <c r="L1093" t="inlineStr"/>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1093" t="n">
         <v>1</v>
       </c>
@@ -41080,7 +40224,11 @@
       </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr"/>
-      <c r="L1094" t="inlineStr"/>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1094" t="n">
         <v>1</v>
       </c>
@@ -41115,7 +40263,11 @@
       </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr"/>
-      <c r="L1095" t="inlineStr"/>
+      <c r="L1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1095" t="n">
         <v>1</v>
       </c>
@@ -41143,14 +40295,20 @@
         <v>205420</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1096" t="n">
         <v>0</v>
       </c>
-      <c r="J1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>205500</v>
+      </c>
       <c r="K1096" t="inlineStr"/>
-      <c r="L1096" t="inlineStr"/>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1096" t="n">
         <v>1</v>
       </c>
@@ -41178,14 +40336,20 @@
         <v>205480</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1097" t="n">
         <v>0</v>
       </c>
-      <c r="J1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>204700</v>
+      </c>
       <c r="K1097" t="inlineStr"/>
-      <c r="L1097" t="inlineStr"/>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1097" t="n">
         <v>1</v>
       </c>
@@ -41213,14 +40377,20 @@
         <v>205380</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1098" t="n">
         <v>0</v>
       </c>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>205200</v>
+      </c>
       <c r="K1098" t="inlineStr"/>
-      <c r="L1098" t="inlineStr"/>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1098" t="n">
         <v>1</v>
       </c>
@@ -41248,14 +40418,20 @@
         <v>205220</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1099" t="n">
         <v>0</v>
       </c>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>205500</v>
+      </c>
       <c r="K1099" t="inlineStr"/>
-      <c r="L1099" t="inlineStr"/>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1099" t="n">
         <v>1</v>
       </c>
@@ -41283,14 +40459,20 @@
         <v>205160</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1100" t="n">
         <v>0</v>
       </c>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>205200</v>
+      </c>
       <c r="K1100" t="inlineStr"/>
-      <c r="L1100" t="inlineStr"/>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1100" t="n">
         <v>1</v>
       </c>
@@ -41318,14 +40500,20 @@
         <v>205060</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1101" t="n">
         <v>0</v>
       </c>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>205200</v>
+      </c>
       <c r="K1101" t="inlineStr"/>
-      <c r="L1101" t="inlineStr"/>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1101" t="n">
         <v>1</v>
       </c>
@@ -41353,14 +40541,20 @@
         <v>205040</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1102" t="n">
         <v>0</v>
       </c>
-      <c r="J1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>204200</v>
+      </c>
       <c r="K1102" t="inlineStr"/>
-      <c r="L1102" t="inlineStr"/>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1102" t="n">
         <v>1</v>
       </c>
@@ -41388,14 +40582,20 @@
         <v>204940</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1103" t="n">
         <v>0</v>
       </c>
-      <c r="J1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>205100</v>
+      </c>
       <c r="K1103" t="inlineStr"/>
-      <c r="L1103" t="inlineStr"/>
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1103" t="n">
         <v>1</v>
       </c>
@@ -41423,14 +40623,20 @@
         <v>204800</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1104" t="n">
         <v>0</v>
       </c>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>205000</v>
+      </c>
       <c r="K1104" t="inlineStr"/>
-      <c r="L1104" t="inlineStr"/>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1104" t="n">
         <v>1</v>
       </c>
@@ -41458,14 +40664,20 @@
         <v>204800</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1105" t="n">
         <v>0</v>
       </c>
-      <c r="J1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>204500</v>
+      </c>
       <c r="K1105" t="inlineStr"/>
-      <c r="L1105" t="inlineStr"/>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1105" t="n">
         <v>1</v>
       </c>
@@ -41493,14 +40705,20 @@
         <v>205420</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1106" t="n">
         <v>0</v>
       </c>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>205200</v>
+      </c>
       <c r="K1106" t="inlineStr"/>
-      <c r="L1106" t="inlineStr"/>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1106" t="n">
         <v>1</v>
       </c>
@@ -41535,7 +40753,11 @@
       </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr"/>
-      <c r="L1107" t="inlineStr"/>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1107" t="n">
         <v>1</v>
       </c>
@@ -41570,7 +40792,11 @@
       </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr"/>
-      <c r="L1108" t="inlineStr"/>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1108" t="n">
         <v>1</v>
       </c>
@@ -41605,7 +40831,11 @@
       </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr"/>
-      <c r="L1109" t="inlineStr"/>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1109" t="n">
         <v>1</v>
       </c>
@@ -41640,7 +40870,11 @@
       </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr"/>
-      <c r="L1110" t="inlineStr"/>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1110" t="n">
         <v>1</v>
       </c>
@@ -41675,7 +40909,11 @@
       </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr"/>
-      <c r="L1111" t="inlineStr"/>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1111" t="n">
         <v>1</v>
       </c>
@@ -41710,7 +40948,11 @@
       </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr"/>
-      <c r="L1112" t="inlineStr"/>
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1112" t="n">
         <v>1</v>
       </c>
@@ -41745,7 +40987,11 @@
       </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr"/>
-      <c r="L1113" t="inlineStr"/>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1113" t="n">
         <v>1</v>
       </c>
@@ -41780,7 +41026,11 @@
       </c>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr"/>
-      <c r="L1114" t="inlineStr"/>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1114" t="n">
         <v>1</v>
       </c>
@@ -41815,7 +41065,11 @@
       </c>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr"/>
-      <c r="L1115" t="inlineStr"/>
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1115" t="n">
         <v>1</v>
       </c>
@@ -41850,7 +41104,11 @@
       </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr"/>
-      <c r="L1116" t="inlineStr"/>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1116" t="n">
         <v>1</v>
       </c>
@@ -41885,7 +41143,11 @@
       </c>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr"/>
-      <c r="L1117" t="inlineStr"/>
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1117" t="n">
         <v>1</v>
       </c>
@@ -41920,7 +41182,11 @@
       </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr"/>
-      <c r="L1118" t="inlineStr"/>
+      <c r="L1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1118" t="n">
         <v>1</v>
       </c>
@@ -41955,7 +41221,11 @@
       </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr"/>
-      <c r="L1119" t="inlineStr"/>
+      <c r="L1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1119" t="n">
         <v>1</v>
       </c>
@@ -41990,7 +41260,11 @@
       </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr"/>
-      <c r="L1120" t="inlineStr"/>
+      <c r="L1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1120" t="n">
         <v>1</v>
       </c>
@@ -42025,7 +41299,11 @@
       </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr"/>
-      <c r="L1121" t="inlineStr"/>
+      <c r="L1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1121" t="n">
         <v>1</v>
       </c>
@@ -42060,7 +41338,11 @@
       </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr"/>
-      <c r="L1122" t="inlineStr"/>
+      <c r="L1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1122" t="n">
         <v>1</v>
       </c>
@@ -42095,7 +41377,11 @@
       </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr"/>
-      <c r="L1123" t="inlineStr"/>
+      <c r="L1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1123" t="n">
         <v>1</v>
       </c>
@@ -42130,7 +41416,11 @@
       </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr"/>
-      <c r="L1124" t="inlineStr"/>
+      <c r="L1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1124" t="n">
         <v>1</v>
       </c>
@@ -42165,7 +41455,11 @@
       </c>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr"/>
-      <c r="L1125" t="inlineStr"/>
+      <c r="L1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1125" t="n">
         <v>1</v>
       </c>
@@ -42200,7 +41494,11 @@
       </c>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr"/>
-      <c r="L1126" t="inlineStr"/>
+      <c r="L1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1126" t="n">
         <v>1</v>
       </c>
@@ -42235,7 +41533,11 @@
       </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr"/>
-      <c r="L1127" t="inlineStr"/>
+      <c r="L1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1127" t="n">
         <v>1</v>
       </c>
@@ -42270,7 +41572,11 @@
       </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr"/>
-      <c r="L1128" t="inlineStr"/>
+      <c r="L1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1128" t="n">
         <v>1</v>
       </c>
@@ -42305,7 +41611,11 @@
       </c>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr"/>
-      <c r="L1129" t="inlineStr"/>
+      <c r="L1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1129" t="n">
         <v>1</v>
       </c>
@@ -42340,7 +41650,11 @@
       </c>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr"/>
-      <c r="L1130" t="inlineStr"/>
+      <c r="L1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1130" t="n">
         <v>1</v>
       </c>
@@ -42375,7 +41689,11 @@
       </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr"/>
-      <c r="L1131" t="inlineStr"/>
+      <c r="L1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1131" t="n">
         <v>1</v>
       </c>
@@ -42410,7 +41728,11 @@
       </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr"/>
-      <c r="L1132" t="inlineStr"/>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1132" t="n">
         <v>1</v>
       </c>
@@ -42445,7 +41767,11 @@
       </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr"/>
-      <c r="L1133" t="inlineStr"/>
+      <c r="L1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1133" t="n">
         <v>1</v>
       </c>
@@ -42480,7 +41806,11 @@
       </c>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr"/>
-      <c r="L1134" t="inlineStr"/>
+      <c r="L1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1134" t="n">
         <v>1</v>
       </c>
@@ -42515,7 +41845,11 @@
       </c>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr"/>
-      <c r="L1135" t="inlineStr"/>
+      <c r="L1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1135" t="n">
         <v>1</v>
       </c>
@@ -42550,7 +41884,11 @@
       </c>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr"/>
-      <c r="L1136" t="inlineStr"/>
+      <c r="L1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1136" t="n">
         <v>1</v>
       </c>
@@ -42585,7 +41923,11 @@
       </c>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr"/>
-      <c r="L1137" t="inlineStr"/>
+      <c r="L1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1137" t="n">
         <v>1</v>
       </c>
@@ -42620,7 +41962,11 @@
       </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr"/>
-      <c r="L1138" t="inlineStr"/>
+      <c r="L1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1138" t="n">
         <v>1</v>
       </c>
@@ -42655,7 +42001,11 @@
       </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr"/>
-      <c r="L1139" t="inlineStr"/>
+      <c r="L1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1139" t="n">
         <v>1</v>
       </c>
@@ -42690,7 +42040,11 @@
       </c>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr"/>
-      <c r="L1140" t="inlineStr"/>
+      <c r="L1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1140" t="n">
         <v>1</v>
       </c>
@@ -42725,7 +42079,11 @@
       </c>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr"/>
-      <c r="L1141" t="inlineStr"/>
+      <c r="L1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1141" t="n">
         <v>1</v>
       </c>
@@ -42760,7 +42118,11 @@
       </c>
       <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr"/>
-      <c r="L1142" t="inlineStr"/>
+      <c r="L1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1142" t="n">
         <v>1</v>
       </c>
@@ -42795,7 +42157,11 @@
       </c>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr"/>
-      <c r="L1143" t="inlineStr"/>
+      <c r="L1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1143" t="n">
         <v>1</v>
       </c>
@@ -42830,7 +42196,11 @@
       </c>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr"/>
-      <c r="L1144" t="inlineStr"/>
+      <c r="L1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1144" t="n">
         <v>1</v>
       </c>
@@ -42865,7 +42235,11 @@
       </c>
       <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr"/>
-      <c r="L1145" t="inlineStr"/>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1145" t="n">
         <v>1</v>
       </c>
@@ -42900,7 +42274,11 @@
       </c>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr"/>
-      <c r="L1146" t="inlineStr"/>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1146" t="n">
         <v>1</v>
       </c>
@@ -42935,7 +42313,11 @@
       </c>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr"/>
-      <c r="L1147" t="inlineStr"/>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1147" t="n">
         <v>1</v>
       </c>
@@ -42970,7 +42352,11 @@
       </c>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr"/>
-      <c r="L1148" t="inlineStr"/>
+      <c r="L1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1148" t="n">
         <v>1</v>
       </c>
@@ -43005,7 +42391,11 @@
       </c>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr"/>
-      <c r="L1149" t="inlineStr"/>
+      <c r="L1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1149" t="n">
         <v>1</v>
       </c>
@@ -43040,7 +42430,11 @@
       </c>
       <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr"/>
-      <c r="L1150" t="inlineStr"/>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1150" t="n">
         <v>1</v>
       </c>
@@ -43075,7 +42469,11 @@
       </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr"/>
-      <c r="L1151" t="inlineStr"/>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1151" t="n">
         <v>1</v>
       </c>
@@ -43110,7 +42508,11 @@
       </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr"/>
-      <c r="L1152" t="inlineStr"/>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1152" t="n">
         <v>1</v>
       </c>
@@ -43145,7 +42547,11 @@
       </c>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr"/>
-      <c r="L1153" t="inlineStr"/>
+      <c r="L1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1153" t="n">
         <v>1</v>
       </c>
@@ -43180,7 +42586,11 @@
       </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr"/>
-      <c r="L1154" t="inlineStr"/>
+      <c r="L1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1154" t="n">
         <v>1</v>
       </c>
@@ -43215,7 +42625,11 @@
       </c>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr"/>
-      <c r="L1155" t="inlineStr"/>
+      <c r="L1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1155" t="n">
         <v>1</v>
       </c>
@@ -43250,7 +42664,11 @@
       </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr"/>
-      <c r="L1156" t="inlineStr"/>
+      <c r="L1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1156" t="n">
         <v>1</v>
       </c>
@@ -43285,7 +42703,11 @@
       </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr"/>
-      <c r="L1157" t="inlineStr"/>
+      <c r="L1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1157" t="n">
         <v>1</v>
       </c>
@@ -43320,7 +42742,11 @@
       </c>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr"/>
-      <c r="L1158" t="inlineStr"/>
+      <c r="L1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1158" t="n">
         <v>1</v>
       </c>
@@ -43355,7 +42781,11 @@
       </c>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr"/>
-      <c r="L1159" t="inlineStr"/>
+      <c r="L1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1159" t="n">
         <v>1</v>
       </c>
@@ -43390,7 +42820,11 @@
       </c>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr"/>
-      <c r="L1160" t="inlineStr"/>
+      <c r="L1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1160" t="n">
         <v>1</v>
       </c>
@@ -43425,7 +42859,11 @@
       </c>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr"/>
-      <c r="L1161" t="inlineStr"/>
+      <c r="L1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1161" t="n">
         <v>1</v>
       </c>
@@ -43460,7 +42898,11 @@
       </c>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr"/>
-      <c r="L1162" t="inlineStr"/>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1162" t="n">
         <v>1</v>
       </c>
@@ -43495,7 +42937,11 @@
       </c>
       <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr"/>
-      <c r="L1163" t="inlineStr"/>
+      <c r="L1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1163" t="n">
         <v>1</v>
       </c>
@@ -43530,7 +42976,11 @@
       </c>
       <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr"/>
-      <c r="L1164" t="inlineStr"/>
+      <c r="L1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1164" t="n">
         <v>1</v>
       </c>
@@ -43565,7 +43015,11 @@
       </c>
       <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr"/>
-      <c r="L1165" t="inlineStr"/>
+      <c r="L1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1165" t="n">
         <v>1</v>
       </c>
@@ -43600,7 +43054,11 @@
       </c>
       <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr"/>
-      <c r="L1166" t="inlineStr"/>
+      <c r="L1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1166" t="n">
         <v>1</v>
       </c>
@@ -43635,7 +43093,11 @@
       </c>
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr"/>
-      <c r="L1167" t="inlineStr"/>
+      <c r="L1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1167" t="n">
         <v>1</v>
       </c>
@@ -43670,7 +43132,11 @@
       </c>
       <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr"/>
-      <c r="L1168" t="inlineStr"/>
+      <c r="L1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1168" t="n">
         <v>1</v>
       </c>
@@ -43705,7 +43171,11 @@
       </c>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr"/>
-      <c r="L1169" t="inlineStr"/>
+      <c r="L1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1169" t="n">
         <v>1</v>
       </c>
@@ -43740,7 +43210,11 @@
       </c>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr"/>
-      <c r="L1170" t="inlineStr"/>
+      <c r="L1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1170" t="n">
         <v>1</v>
       </c>
@@ -43775,7 +43249,11 @@
       </c>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr"/>
-      <c r="L1171" t="inlineStr"/>
+      <c r="L1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1171" t="n">
         <v>1</v>
       </c>
@@ -43810,7 +43288,11 @@
       </c>
       <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr"/>
-      <c r="L1172" t="inlineStr"/>
+      <c r="L1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1172" t="n">
         <v>1</v>
       </c>
@@ -43845,7 +43327,11 @@
       </c>
       <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr"/>
-      <c r="L1173" t="inlineStr"/>
+      <c r="L1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1173" t="n">
         <v>1</v>
       </c>
@@ -43880,7 +43366,11 @@
       </c>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr"/>
-      <c r="L1174" t="inlineStr"/>
+      <c r="L1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1174" t="n">
         <v>1</v>
       </c>
@@ -43915,7 +43405,11 @@
       </c>
       <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr"/>
-      <c r="L1175" t="inlineStr"/>
+      <c r="L1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1175" t="n">
         <v>1</v>
       </c>
@@ -43950,7 +43444,11 @@
       </c>
       <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr"/>
-      <c r="L1176" t="inlineStr"/>
+      <c r="L1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1176" t="n">
         <v>1</v>
       </c>
@@ -43985,7 +43483,11 @@
       </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr"/>
-      <c r="L1177" t="inlineStr"/>
+      <c r="L1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1177" t="n">
         <v>1</v>
       </c>
@@ -44020,7 +43522,11 @@
       </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr"/>
-      <c r="L1178" t="inlineStr"/>
+      <c r="L1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1178" t="n">
         <v>1</v>
       </c>
@@ -44055,7 +43561,11 @@
       </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr"/>
-      <c r="L1179" t="inlineStr"/>
+      <c r="L1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1179" t="n">
         <v>1</v>
       </c>
@@ -44090,7 +43600,11 @@
       </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr"/>
-      <c r="L1180" t="inlineStr"/>
+      <c r="L1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1180" t="n">
         <v>1</v>
       </c>
@@ -44125,7 +43639,11 @@
       </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr"/>
-      <c r="L1181" t="inlineStr"/>
+      <c r="L1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1181" t="n">
         <v>1</v>
       </c>
@@ -44160,7 +43678,11 @@
       </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr"/>
-      <c r="L1182" t="inlineStr"/>
+      <c r="L1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1182" t="n">
         <v>1</v>
       </c>
@@ -44195,7 +43717,11 @@
       </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr"/>
-      <c r="L1183" t="inlineStr"/>
+      <c r="L1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1183" t="n">
         <v>1</v>
       </c>
@@ -44230,7 +43756,11 @@
       </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr"/>
-      <c r="L1184" t="inlineStr"/>
+      <c r="L1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1184" t="n">
         <v>1</v>
       </c>
@@ -44265,7 +43795,11 @@
       </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr"/>
-      <c r="L1185" t="inlineStr"/>
+      <c r="L1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1185" t="n">
         <v>1</v>
       </c>
@@ -44300,7 +43834,11 @@
       </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr"/>
-      <c r="L1186" t="inlineStr"/>
+      <c r="L1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1186" t="n">
         <v>1</v>
       </c>
@@ -44335,7 +43873,11 @@
       </c>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr"/>
-      <c r="L1187" t="inlineStr"/>
+      <c r="L1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1187" t="n">
         <v>1</v>
       </c>
@@ -44370,7 +43912,11 @@
       </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr"/>
-      <c r="L1188" t="inlineStr"/>
+      <c r="L1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1188" t="n">
         <v>1</v>
       </c>
@@ -44405,7 +43951,11 @@
       </c>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr"/>
-      <c r="L1189" t="inlineStr"/>
+      <c r="L1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1189" t="n">
         <v>1</v>
       </c>
@@ -44440,7 +43990,11 @@
       </c>
       <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr"/>
-      <c r="L1190" t="inlineStr"/>
+      <c r="L1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1190" t="n">
         <v>1</v>
       </c>
@@ -44475,7 +44029,11 @@
       </c>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr"/>
-      <c r="L1191" t="inlineStr"/>
+      <c r="L1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1191" t="n">
         <v>1</v>
       </c>
@@ -44510,7 +44068,11 @@
       </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr"/>
-      <c r="L1192" t="inlineStr"/>
+      <c r="L1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1192" t="n">
         <v>1</v>
       </c>
@@ -44545,7 +44107,11 @@
       </c>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr"/>
-      <c r="L1193" t="inlineStr"/>
+      <c r="L1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1193" t="n">
         <v>1</v>
       </c>
@@ -44580,7 +44146,11 @@
       </c>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr"/>
-      <c r="L1194" t="inlineStr"/>
+      <c r="L1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1194" t="n">
         <v>1</v>
       </c>
@@ -44615,7 +44185,11 @@
       </c>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr"/>
-      <c r="L1195" t="inlineStr"/>
+      <c r="L1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1195" t="n">
         <v>1</v>
       </c>
@@ -44650,7 +44224,11 @@
       </c>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr"/>
-      <c r="L1196" t="inlineStr"/>
+      <c r="L1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1196" t="n">
         <v>1</v>
       </c>
@@ -44685,7 +44263,11 @@
       </c>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr"/>
-      <c r="L1197" t="inlineStr"/>
+      <c r="L1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1197" t="n">
         <v>1</v>
       </c>
@@ -44720,7 +44302,11 @@
       </c>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr"/>
-      <c r="L1198" t="inlineStr"/>
+      <c r="L1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1198" t="n">
         <v>1</v>
       </c>
@@ -44755,7 +44341,11 @@
       </c>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr"/>
-      <c r="L1199" t="inlineStr"/>
+      <c r="L1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1199" t="n">
         <v>1</v>
       </c>
@@ -44790,7 +44380,11 @@
       </c>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr"/>
-      <c r="L1200" t="inlineStr"/>
+      <c r="L1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1200" t="n">
         <v>1</v>
       </c>
@@ -44825,7 +44419,11 @@
       </c>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr"/>
-      <c r="L1201" t="inlineStr"/>
+      <c r="L1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1201" t="n">
         <v>1</v>
       </c>
@@ -44860,7 +44458,11 @@
       </c>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr"/>
-      <c r="L1202" t="inlineStr"/>
+      <c r="L1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1202" t="n">
         <v>1</v>
       </c>
@@ -44895,7 +44497,11 @@
       </c>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr"/>
-      <c r="L1203" t="inlineStr"/>
+      <c r="L1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1203" t="n">
         <v>1</v>
       </c>
@@ -44930,7 +44536,11 @@
       </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr"/>
-      <c r="L1204" t="inlineStr"/>
+      <c r="L1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1204" t="n">
         <v>1</v>
       </c>
@@ -44965,7 +44575,11 @@
       </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr"/>
-      <c r="L1205" t="inlineStr"/>
+      <c r="L1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1205" t="n">
         <v>1</v>
       </c>
@@ -45000,7 +44614,11 @@
       </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr"/>
-      <c r="L1206" t="inlineStr"/>
+      <c r="L1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1206" t="n">
         <v>1</v>
       </c>
@@ -45035,7 +44653,11 @@
       </c>
       <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr"/>
-      <c r="L1207" t="inlineStr"/>
+      <c r="L1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1207" t="n">
         <v>1</v>
       </c>
@@ -45070,7 +44692,11 @@
       </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr"/>
-      <c r="L1208" t="inlineStr"/>
+      <c r="L1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1208" t="n">
         <v>1</v>
       </c>
@@ -45105,7 +44731,11 @@
       </c>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr"/>
-      <c r="L1209" t="inlineStr"/>
+      <c r="L1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1209" t="n">
         <v>1</v>
       </c>
@@ -45140,7 +44770,11 @@
       </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr"/>
-      <c r="L1210" t="inlineStr"/>
+      <c r="L1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1210" t="n">
         <v>1</v>
       </c>
@@ -45175,7 +44809,11 @@
       </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr"/>
-      <c r="L1211" t="inlineStr"/>
+      <c r="L1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1211" t="n">
         <v>1</v>
       </c>
@@ -45210,7 +44848,11 @@
       </c>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr"/>
-      <c r="L1212" t="inlineStr"/>
+      <c r="L1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1212" t="n">
         <v>1</v>
       </c>
@@ -45245,7 +44887,11 @@
       </c>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr"/>
-      <c r="L1213" t="inlineStr"/>
+      <c r="L1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1213" t="n">
         <v>1</v>
       </c>
@@ -45280,7 +44926,11 @@
       </c>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr"/>
-      <c r="L1214" t="inlineStr"/>
+      <c r="L1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1214" t="n">
         <v>1</v>
       </c>
@@ -45315,7 +44965,11 @@
       </c>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr"/>
-      <c r="L1215" t="inlineStr"/>
+      <c r="L1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1215" t="n">
         <v>1</v>
       </c>
@@ -45350,7 +45004,11 @@
       </c>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr"/>
-      <c r="L1216" t="inlineStr"/>
+      <c r="L1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1216" t="n">
         <v>1</v>
       </c>
@@ -45385,7 +45043,11 @@
       </c>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr"/>
-      <c r="L1217" t="inlineStr"/>
+      <c r="L1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1217" t="n">
         <v>1</v>
       </c>
@@ -45420,7 +45082,11 @@
       </c>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr"/>
-      <c r="L1218" t="inlineStr"/>
+      <c r="L1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1218" t="n">
         <v>1</v>
       </c>
@@ -45455,7 +45121,11 @@
       </c>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr"/>
-      <c r="L1219" t="inlineStr"/>
+      <c r="L1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1219" t="n">
         <v>1</v>
       </c>
@@ -45490,7 +45160,11 @@
       </c>
       <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr"/>
-      <c r="L1220" t="inlineStr"/>
+      <c r="L1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1220" t="n">
         <v>1</v>
       </c>
@@ -45525,7 +45199,11 @@
       </c>
       <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr"/>
-      <c r="L1221" t="inlineStr"/>
+      <c r="L1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1221" t="n">
         <v>1</v>
       </c>
@@ -45560,7 +45238,11 @@
       </c>
       <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr"/>
-      <c r="L1222" t="inlineStr"/>
+      <c r="L1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1222" t="n">
         <v>1</v>
       </c>
@@ -45595,7 +45277,11 @@
       </c>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr"/>
-      <c r="L1223" t="inlineStr"/>
+      <c r="L1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1223" t="n">
         <v>1</v>
       </c>
@@ -45630,7 +45316,11 @@
       </c>
       <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr"/>
-      <c r="L1224" t="inlineStr"/>
+      <c r="L1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1224" t="n">
         <v>1</v>
       </c>
@@ -45665,7 +45355,11 @@
       </c>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr"/>
-      <c r="L1225" t="inlineStr"/>
+      <c r="L1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1225" t="n">
         <v>1</v>
       </c>
@@ -45700,7 +45394,11 @@
       </c>
       <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr"/>
-      <c r="L1226" t="inlineStr"/>
+      <c r="L1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1226" t="n">
         <v>1</v>
       </c>
@@ -45735,7 +45433,11 @@
       </c>
       <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr"/>
-      <c r="L1227" t="inlineStr"/>
+      <c r="L1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1227" t="n">
         <v>1</v>
       </c>
@@ -45770,7 +45472,11 @@
       </c>
       <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr"/>
-      <c r="L1228" t="inlineStr"/>
+      <c r="L1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1228" t="n">
         <v>1</v>
       </c>
@@ -45805,7 +45511,11 @@
       </c>
       <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr"/>
-      <c r="L1229" t="inlineStr"/>
+      <c r="L1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1229" t="n">
         <v>1</v>
       </c>
@@ -45840,7 +45550,11 @@
       </c>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr"/>
-      <c r="L1230" t="inlineStr"/>
+      <c r="L1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1230" t="n">
         <v>1</v>
       </c>
@@ -45875,7 +45589,11 @@
       </c>
       <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr"/>
-      <c r="L1231" t="inlineStr"/>
+      <c r="L1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1231" t="n">
         <v>1</v>
       </c>
@@ -45910,7 +45628,11 @@
       </c>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr"/>
-      <c r="L1232" t="inlineStr"/>
+      <c r="L1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1232" t="n">
         <v>1</v>
       </c>
@@ -45945,7 +45667,11 @@
       </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr"/>
-      <c r="L1233" t="inlineStr"/>
+      <c r="L1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1233" t="n">
         <v>1</v>
       </c>
@@ -45980,7 +45706,11 @@
       </c>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr"/>
-      <c r="L1234" t="inlineStr"/>
+      <c r="L1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1234" t="n">
         <v>1</v>
       </c>
@@ -46015,7 +45745,11 @@
       </c>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr"/>
-      <c r="L1235" t="inlineStr"/>
+      <c r="L1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1235" t="n">
         <v>1</v>
       </c>
@@ -46050,7 +45784,11 @@
       </c>
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr"/>
-      <c r="L1236" t="inlineStr"/>
+      <c r="L1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1236" t="n">
         <v>1</v>
       </c>
@@ -46085,7 +45823,11 @@
       </c>
       <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr"/>
-      <c r="L1237" t="inlineStr"/>
+      <c r="L1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1237" t="n">
         <v>1</v>
       </c>
@@ -46120,7 +45862,11 @@
       </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr"/>
-      <c r="L1238" t="inlineStr"/>
+      <c r="L1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1238" t="n">
         <v>1</v>
       </c>
@@ -46155,7 +45901,11 @@
       </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr"/>
-      <c r="L1239" t="inlineStr"/>
+      <c r="L1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1239" t="n">
         <v>1</v>
       </c>
@@ -46190,7 +45940,11 @@
       </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr"/>
-      <c r="L1240" t="inlineStr"/>
+      <c r="L1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1240" t="n">
         <v>1</v>
       </c>
@@ -46225,7 +45979,11 @@
       </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr"/>
-      <c r="L1241" t="inlineStr"/>
+      <c r="L1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1241" t="n">
         <v>1</v>
       </c>
@@ -46260,7 +46018,11 @@
       </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr"/>
-      <c r="L1242" t="inlineStr"/>
+      <c r="L1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1242" t="n">
         <v>1</v>
       </c>
@@ -46295,7 +46057,11 @@
       </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr"/>
-      <c r="L1243" t="inlineStr"/>
+      <c r="L1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1243" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest ETH.xlsx
+++ b/BackTest/2019-10-26 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>388.5910094480565</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>351.0532094480565</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>196200</v>
@@ -523,7 +523,7 @@
         <v>351.0532094480565</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>196000</v>
@@ -562,7 +562,7 @@
         <v>458.0456094480564</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>196000</v>
@@ -601,7 +601,7 @@
         <v>414.2382094480564</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>196200</v>
@@ -640,7 +640,7 @@
         <v>414.2382094480564</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>195800</v>
@@ -679,7 +679,7 @@
         <v>414.2382094480564</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>195800</v>
@@ -718,7 +718,7 @@
         <v>414.5024094480564</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>195800</v>
@@ -757,7 +757,7 @@
         <v>413.0187094480564</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>195900</v>
@@ -796,7 +796,7 @@
         <v>437.7582575357668</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>195800</v>
@@ -835,7 +835,7 @@
         <v>437.0880575357668</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>196100</v>
@@ -874,7 +874,7 @@
         <v>551.9596575357668</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>195800</v>
@@ -913,7 +913,7 @@
         <v>551.9596575357668</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>196200</v>
@@ -952,7 +952,7 @@
         <v>524.9898575357669</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>196200</v>
@@ -991,7 +991,7 @@
         <v>524.9898575357669</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>195900</v>
@@ -1030,7 +1030,7 @@
         <v>565.7242575357669</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>195900</v>
@@ -1069,7 +1069,7 @@
         <v>557.0061575357669</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>196100</v>
@@ -1108,7 +1108,7 @@
         <v>601.7794575357668</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>195800</v>
@@ -1147,7 +1147,7 @@
         <v>641.2137575357668</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>196200</v>
@@ -1186,7 +1186,7 @@
         <v>587.1742575357669</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>196400</v>
@@ -1225,7 +1225,7 @@
         <v>587.1742575357669</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>196200</v>
@@ -1264,7 +1264,7 @@
         <v>647.5937575357668</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>196200</v>
@@ -1303,7 +1303,7 @@
         <v>647.5937575357668</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>196300</v>
@@ -1342,7 +1342,7 @@
         <v>688.9647575357668</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>196300</v>
@@ -1381,7 +1381,7 @@
         <v>816.9984575357669</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>196500</v>
@@ -1420,7 +1420,7 @@
         <v>845.7945575357669</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>196700</v>
@@ -1459,7 +1459,7 @@
         <v>909.1259575357669</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>196800</v>
@@ -1498,7 +1498,7 @@
         <v>1208.653457535767</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>196900</v>
@@ -1537,7 +1537,7 @@
         <v>1101.838557535767</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>197100</v>
@@ -1576,7 +1576,7 @@
         <v>1184.434657535767</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>197000</v>
@@ -1615,7 +1615,7 @@
         <v>1135.637057535767</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>197300</v>
@@ -1654,7 +1654,7 @@
         <v>1152.873957535767</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>197000</v>
@@ -1693,7 +1693,7 @@
         <v>1079.691957535767</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>197300</v>
@@ -1732,7 +1732,7 @@
         <v>1125.179457535767</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>197000</v>
@@ -1771,7 +1771,7 @@
         <v>1034.345857535767</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>197100</v>
@@ -1810,7 +1810,7 @@
         <v>1068.526057535767</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>196800</v>
@@ -1849,7 +1849,7 @@
         <v>1107.052657535767</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>196900</v>
@@ -1888,7 +1888,7 @@
         <v>1033.088957535767</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>197100</v>
@@ -1927,7 +1927,7 @@
         <v>1040.703857535767</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>196900</v>
@@ -1966,7 +1966,7 @@
         <v>1356.488157535767</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>197200</v>
@@ -2005,7 +2005,7 @@
         <v>1353.149057535767</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>197700</v>
@@ -2044,7 +2044,7 @@
         <v>1265.037457535767</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>197100</v>
@@ -2083,7 +2083,7 @@
         <v>1265.037457535767</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>197000</v>
@@ -2122,7 +2122,7 @@
         <v>1262.599457535767</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>197000</v>
@@ -2161,7 +2161,7 @@
         <v>1262.599457535767</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>196900</v>
@@ -2200,7 +2200,7 @@
         <v>1398.990457535767</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>196900</v>
@@ -2239,7 +2239,7 @@
         <v>1367.502057535767</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>197000</v>
@@ -2278,7 +2278,7 @@
         <v>1354.878157535767</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>196900</v>
@@ -2317,7 +2317,7 @@
         <v>1347.896576234954</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>196800</v>
@@ -2356,7 +2356,7 @@
         <v>1347.896576234954</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>196500</v>
@@ -2395,7 +2395,7 @@
         <v>1347.896576234954</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>196500</v>
@@ -2434,7 +2434,7 @@
         <v>1334.799876234954</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>196500</v>
@@ -2473,7 +2473,7 @@
         <v>1353.326776234954</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>196300</v>
@@ -2512,7 +2512,7 @@
         <v>1384.720076234954</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>196800</v>
@@ -2551,7 +2551,7 @@
         <v>1369.169676234954</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>196900</v>
@@ -2590,7 +2590,7 @@
         <v>1369.217276234954</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>196500</v>
@@ -2629,7 +2629,7 @@
         <v>1369.452076234954</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>196600</v>
@@ -2668,7 +2668,7 @@
         <v>1369.683076234954</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>196700</v>
@@ -2707,7 +2707,7 @@
         <v>1369.683076234954</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>196900</v>
@@ -2746,7 +2746,7 @@
         <v>1351.165576234954</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>196900</v>
@@ -2785,7 +2785,7 @@
         <v>1351.165576234954</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>196300</v>
@@ -2824,7 +2824,7 @@
         <v>1330.144876234954</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>196300</v>
@@ -2863,7 +2863,7 @@
         <v>1394.501376234954</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>196200</v>
@@ -2902,7 +2902,7 @@
         <v>1394.501376234954</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>196500</v>
@@ -2941,7 +2941,7 @@
         <v>1366.432676234954</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>196500</v>
@@ -2980,7 +2980,7 @@
         <v>1366.432676234954</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>196400</v>
@@ -3019,7 +3019,7 @@
         <v>1366.432676234954</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>196400</v>
@@ -3058,7 +3058,7 @@
         <v>1372.623576234954</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>196400</v>
@@ -3097,7 +3097,7 @@
         <v>1370.623576234954</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>196500</v>
@@ -3136,7 +3136,7 @@
         <v>1375.819069622543</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>196400</v>
@@ -3175,7 +3175,7 @@
         <v>1350.559469622543</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>196600</v>
@@ -3214,7 +3214,7 @@
         <v>1357.795969622543</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>196300</v>
@@ -3253,7 +3253,7 @@
         <v>1357.462769622543</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>196500</v>
@@ -3292,7 +3292,7 @@
         <v>1363.399069622543</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>196300</v>
@@ -3331,7 +3331,7 @@
         <v>1332.414369622543</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>196500</v>
@@ -3370,7 +3370,7 @@
         <v>1325.463469622543</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>196300</v>
@@ -3409,7 +3409,7 @@
         <v>1311.602569622543</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>196100</v>
@@ -3448,7 +3448,7 @@
         <v>1319.426669622543</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>196000</v>
@@ -3487,7 +3487,7 @@
         <v>1309.534469622543</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>196200</v>
@@ -3526,7 +3526,7 @@
         <v>1309.534469622543</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>196000</v>
@@ -3565,7 +3565,7 @@
         <v>1340.52748535128</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>196000</v>
@@ -3604,7 +3604,7 @@
         <v>1617.597761459278</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>196300</v>
@@ -3643,7 +3643,7 @@
         <v>1617.597761459278</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>196500</v>
@@ -3682,7 +3682,7 @@
         <v>1615.597761459278</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>196500</v>
@@ -3721,7 +3721,7 @@
         <v>1640.650061459278</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>196200</v>
@@ -3760,7 +3760,7 @@
         <v>1640.650061459278</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>196500</v>
@@ -3799,7 +3799,7 @@
         <v>1575.958261459278</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>196500</v>
@@ -3838,7 +3838,7 @@
         <v>1575.958261459278</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>196400</v>
@@ -3877,7 +3877,7 @@
         <v>1575.958261459278</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>196400</v>
@@ -3916,7 +3916,7 @@
         <v>1575.958261459278</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>196400</v>
@@ -3955,7 +3955,7 @@
         <v>1575.958261459278</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>196400</v>
@@ -3994,7 +3994,7 @@
         <v>1629.254161459278</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>196400</v>
@@ -4033,7 +4033,7 @@
         <v>1639.700361459278</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>196700</v>
@@ -4072,7 +4072,7 @@
         <v>1648.347961459278</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>196800</v>
@@ -4111,7 +4111,7 @@
         <v>1645.961561459278</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>197000</v>
@@ -4150,7 +4150,7 @@
         <v>1655.947561459278</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>196900</v>
@@ -4189,7 +4189,7 @@
         <v>1655.757861459278</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>197000</v>
@@ -4228,7 +4228,7 @@
         <v>1625.000061459278</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>196900</v>
@@ -4267,7 +4267,7 @@
         <v>1676.914665723237</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>196600</v>
@@ -4306,7 +4306,7 @@
         <v>1748.063865723237</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>196900</v>
@@ -4345,7 +4345,7 @@
         <v>1740.739665723237</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>197000</v>
@@ -4384,7 +4384,7 @@
         <v>1747.505965723237</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>196900</v>
@@ -4423,7 +4423,7 @@
         <v>1810.646165723237</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>197000</v>
@@ -4462,7 +4462,7 @@
         <v>1684.241865723237</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>197700</v>
@@ -4501,7 +4501,7 @@
         <v>1607.683265723237</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>197400</v>
@@ -4540,7 +4540,7 @@
         <v>1604.683265723237</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>197300</v>
@@ -4579,7 +4579,7 @@
         <v>1606.187665723237</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>197200</v>
@@ -4618,7 +4618,7 @@
         <v>1604.687665723237</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>197500</v>
@@ -4657,7 +4657,7 @@
         <v>1604.687665723237</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>197200</v>
@@ -4696,7 +4696,7 @@
         <v>1604.687665723237</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>197200</v>
@@ -4735,7 +4735,7 @@
         <v>1603.451965723237</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>197200</v>
@@ -4774,7 +4774,7 @@
         <v>1630.961565723237</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>196800</v>
@@ -4813,7 +4813,7 @@
         <v>1628.961565723237</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>197400</v>
@@ -4852,7 +4852,7 @@
         <v>1639.219565723237</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>196900</v>
@@ -4891,7 +4891,7 @@
         <v>1613.024465723237</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>197400</v>
@@ -4930,7 +4930,7 @@
         <v>1662.501265723237</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>197200</v>
@@ -4969,7 +4969,7 @@
         <v>1710.708365723237</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>197300</v>
@@ -5008,7 +5008,7 @@
         <v>1545.172365723237</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>197800</v>
@@ -5047,7 +5047,7 @@
         <v>1619.413065723237</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>197400</v>
@@ -5086,7 +5086,7 @@
         <v>1222.734265723238</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>197900</v>
@@ -5125,7 +5125,7 @@
         <v>1322.699365723237</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>197800</v>
@@ -5164,7 +5164,7 @@
         <v>1008.000565723237</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>198200</v>
@@ -5203,7 +5203,7 @@
         <v>1154.836265723237</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>198000</v>
@@ -5242,7 +5242,7 @@
         <v>2069.258327966602</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>199000</v>
@@ -5281,7 +5281,7 @@
         <v>3383.990359812474</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>200200</v>
@@ -6800,9 +6800,11 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>207200</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -14755,16 +14757,18 @@
         <v>15194.4493518446</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L382" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
       <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
@@ -14794,7 +14798,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14827,7 +14835,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14856,11 +14868,15 @@
         <v>15193.6149518446</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14889,11 +14905,15 @@
         <v>15197.0629518446</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14926,7 +14946,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14959,7 +14983,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14992,7 +15020,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15025,7 +15057,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15058,7 +15094,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15091,7 +15131,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15120,11 +15164,15 @@
         <v>15371.59348400277</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15153,11 +15201,15 @@
         <v>15371.59348400277</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15186,11 +15238,15 @@
         <v>15371.59348400277</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15219,11 +15275,15 @@
         <v>15640.5507518446</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15252,11 +15312,15 @@
         <v>15716.3474518446</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15285,11 +15349,15 @@
         <v>15696.7853518446</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15318,11 +15386,15 @@
         <v>15753.0159518446</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15351,11 +15423,15 @@
         <v>15782.4899518446</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15384,11 +15460,15 @@
         <v>15828.2607518446</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15417,11 +15497,15 @@
         <v>15828.2607518446</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15450,11 +15534,15 @@
         <v>15828.2607518446</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15483,11 +15571,15 @@
         <v>15797.9650518446</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15516,11 +15608,15 @@
         <v>15797.1377518446</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15549,11 +15645,15 @@
         <v>15797.1377518446</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15582,11 +15682,15 @@
         <v>15797.1377518446</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15615,11 +15719,15 @@
         <v>15797.1377518446</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15648,11 +15756,15 @@
         <v>15928.1487518446</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15681,11 +15793,15 @@
         <v>15928.1487518446</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15714,11 +15830,15 @@
         <v>15925.3897518446</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15747,11 +15867,15 @@
         <v>15561.0238518446</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15780,11 +15904,15 @@
         <v>15561.0238518446</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15813,11 +15941,15 @@
         <v>15835.0580518446</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15846,11 +15978,15 @@
         <v>15835.0580518446</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15883,7 +16019,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15916,7 +16056,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15949,7 +16093,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15982,7 +16130,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16015,7 +16167,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16048,7 +16204,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16081,7 +16241,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16114,7 +16278,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16147,7 +16315,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16180,7 +16352,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16213,7 +16389,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16246,7 +16426,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16279,7 +16463,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16312,7 +16500,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16345,7 +16537,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16378,7 +16574,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16411,7 +16611,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16444,7 +16648,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16477,7 +16685,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16510,7 +16722,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16543,7 +16759,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16576,7 +16796,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16609,7 +16833,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16642,7 +16870,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16675,7 +16907,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16708,7 +16944,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16741,7 +16981,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16774,7 +17018,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16807,7 +17055,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16840,7 +17092,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +17129,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16906,7 +17166,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16939,7 +17203,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16972,7 +17240,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17005,7 +17277,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17038,7 +17314,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17071,7 +17351,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17104,7 +17388,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17137,7 +17425,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17170,7 +17462,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17203,7 +17499,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17236,7 +17536,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17269,7 +17573,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17302,7 +17610,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17335,7 +17647,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17368,7 +17684,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17401,7 +17721,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17434,7 +17758,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17467,7 +17795,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17500,7 +17832,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17533,7 +17869,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17566,7 +17906,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17599,7 +17943,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17632,7 +17980,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17665,7 +18017,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17698,7 +18054,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17731,7 +18091,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17764,7 +18128,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17797,7 +18165,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17830,7 +18202,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17863,7 +18239,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17896,7 +18276,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17929,7 +18313,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17962,7 +18350,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17991,11 +18383,15 @@
         <v>15967.05575260759</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18024,11 +18420,15 @@
         <v>15967.05575260759</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18057,11 +18457,15 @@
         <v>15971.00065260759</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18094,7 +18498,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18127,7 +18535,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18160,7 +18572,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18193,7 +18609,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18226,7 +18646,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18259,7 +18683,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18292,7 +18720,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18321,11 +18753,15 @@
         <v>16042.71095260759</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18354,11 +18790,15 @@
         <v>16056.41915260759</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18387,11 +18827,15 @@
         <v>16056.41915260759</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18420,11 +18864,15 @@
         <v>16055.52915260759</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18453,11 +18901,15 @@
         <v>16089.76534394505</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18486,11 +18938,15 @@
         <v>16062.21844394505</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18519,11 +18975,15 @@
         <v>16062.21844394505</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18552,11 +19012,15 @@
         <v>16071.27054394505</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18585,11 +19049,15 @@
         <v>16071.27054394505</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18618,11 +19086,15 @@
         <v>15981.61034394505</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18651,11 +19123,15 @@
         <v>16039.86574394505</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18684,11 +19160,15 @@
         <v>16105.32764394505</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18717,11 +19197,15 @@
         <v>16247.61844394505</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18750,11 +19234,15 @@
         <v>16283.36354394505</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18783,11 +19271,15 @@
         <v>16283.36354394505</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18816,11 +19308,15 @@
         <v>16474.99504394505</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18849,11 +19345,15 @@
         <v>16386.01775823077</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18882,11 +19382,15 @@
         <v>16505.09595823077</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18915,11 +19419,15 @@
         <v>16321.07755132443</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18948,11 +19456,15 @@
         <v>16449.30715132443</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18981,11 +19493,15 @@
         <v>16091.39755132443</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19014,11 +19530,15 @@
         <v>15992.12755132443</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19047,11 +19567,15 @@
         <v>15992.12755132443</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19080,11 +19604,15 @@
         <v>15910.81785260223</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19113,11 +19641,15 @@
         <v>15908.48475260223</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19146,11 +19678,15 @@
         <v>15855.68505260224</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19179,11 +19715,15 @@
         <v>15861.49635260223</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19212,11 +19752,15 @@
         <v>15851.88305260223</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19249,7 +19793,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19282,7 +19830,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19315,7 +19867,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19348,7 +19904,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19381,7 +19941,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19414,7 +19978,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19447,7 +20015,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19480,7 +20052,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19513,7 +20089,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19546,7 +20126,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19579,7 +20163,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19612,7 +20200,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19645,7 +20237,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19678,7 +20274,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19711,7 +20311,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19744,7 +20348,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19777,7 +20385,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19810,7 +20422,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19843,7 +20459,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19876,7 +20496,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19909,7 +20533,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19942,7 +20570,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19975,7 +20607,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20008,7 +20644,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20041,7 +20681,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20074,7 +20718,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20107,7 +20755,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20140,7 +20792,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20173,7 +20829,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20206,7 +20866,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20239,7 +20903,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20272,7 +20940,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20305,7 +20977,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20338,7 +21014,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20371,7 +21051,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20404,7 +21088,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20437,7 +21125,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20470,7 +21162,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20503,7 +21199,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20536,7 +21236,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20569,7 +21273,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20602,7 +21310,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20635,7 +21347,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20668,7 +21384,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20701,7 +21421,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20734,7 +21458,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20767,7 +21495,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20800,7 +21532,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20833,7 +21569,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20866,7 +21606,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20899,7 +21643,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20932,7 +21680,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20965,7 +21717,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20998,7 +21754,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21031,7 +21791,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21064,7 +21828,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21097,7 +21865,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21130,7 +21902,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21163,7 +21939,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21192,11 +21972,15 @@
         <v>15661.19326920025</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21229,7 +22013,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21262,7 +22050,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21295,7 +22087,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21324,11 +22120,15 @@
         <v>15700.84018094538</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21357,11 +22157,15 @@
         <v>15775.12516920025</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21390,11 +22194,15 @@
         <v>15798.81786920025</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21423,11 +22231,15 @@
         <v>15791.31136920025</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21456,11 +22268,15 @@
         <v>15764.82766920025</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21489,11 +22305,15 @@
         <v>15810.11966920025</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21522,11 +22342,15 @@
         <v>15855.84446920025</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21555,11 +22379,15 @@
         <v>15841.25156920025</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21588,11 +22416,15 @@
         <v>15865.82116920025</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21625,7 +22457,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21658,7 +22494,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21691,7 +22531,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21720,11 +22564,15 @@
         <v>16225.63526920025</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21757,7 +22605,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21790,7 +22642,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21819,11 +22675,15 @@
         <v>16269.07926920025</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21852,11 +22712,15 @@
         <v>16269.07926920025</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21889,7 +22753,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21922,7 +22790,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21955,7 +22827,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21988,7 +22864,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22021,7 +22901,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22054,7 +22938,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22087,7 +22975,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22120,7 +23012,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22153,7 +23049,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22186,7 +23086,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22219,7 +23123,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22252,7 +23160,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22281,11 +23193,15 @@
         <v>16501.25959507609</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22318,7 +23234,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22351,7 +23271,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22380,11 +23304,15 @@
         <v>17303.82759507609</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22413,11 +23341,15 @@
         <v>17368.06039507609</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22446,11 +23378,15 @@
         <v>17438.93947561865</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22479,11 +23415,15 @@
         <v>16992.41987561865</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22512,11 +23452,15 @@
         <v>16859.46376933936</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22545,11 +23489,15 @@
         <v>16751.45486933936</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22578,11 +23526,15 @@
         <v>16807.30876933936</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22611,11 +23563,15 @@
         <v>16909.68716933936</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22648,7 +23604,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22681,7 +23641,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22714,7 +23678,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22747,7 +23715,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22776,11 +23748,15 @@
         <v>18634.03412272213</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22809,11 +23785,15 @@
         <v>19014.45396819347</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22842,11 +23822,15 @@
         <v>18194.60102455627</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22875,11 +23859,15 @@
         <v>18194.60102455627</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22908,11 +23896,15 @@
         <v>18927.39027908492</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22941,11 +23933,15 @@
         <v>19609.33877908492</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22974,11 +23970,15 @@
         <v>18572.40500411835</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23007,11 +24007,15 @@
         <v>17716.02076761116</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23040,11 +24044,15 @@
         <v>17833.83866761115</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23073,11 +24081,15 @@
         <v>18089.62146761116</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23110,7 +24122,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23143,7 +24159,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23176,7 +24196,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23209,7 +24233,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23242,7 +24270,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23275,7 +24307,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23308,7 +24344,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23341,7 +24381,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23374,7 +24418,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23407,7 +24455,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23440,7 +24492,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23473,7 +24529,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23506,7 +24566,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23539,7 +24603,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23572,7 +24640,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23605,7 +24677,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23638,7 +24714,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23671,7 +24751,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23704,7 +24788,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23737,7 +24825,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23770,7 +24862,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23803,7 +24899,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23836,7 +24936,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23869,7 +24973,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23902,7 +25010,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23935,7 +25047,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23968,7 +25084,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24001,7 +25121,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24034,7 +25158,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24067,7 +25195,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24100,7 +25232,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24133,7 +25269,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24166,7 +25306,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24199,7 +25343,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24232,7 +25380,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24265,7 +25417,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24298,7 +25454,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24331,7 +25491,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24364,7 +25528,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24393,11 +25561,15 @@
         <v>20546.51301724833</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24430,7 +25602,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24463,7 +25639,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24496,7 +25676,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24529,7 +25713,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24562,7 +25750,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24595,7 +25787,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24628,7 +25824,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24661,7 +25861,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24694,7 +25898,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24727,7 +25935,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24760,7 +25972,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24793,7 +26009,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24826,7 +26046,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24855,14 +26079,16 @@
         <v>22565.22370959482</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr"/>
       <c r="M688" t="inlineStr"/>
     </row>
     <row r="689">
@@ -24888,7 +26114,7 @@
         <v>22972.39700959482</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25020,7 +26246,7 @@
         <v>24681.26475957223</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25053,7 +26279,7 @@
         <v>26538.07115957223</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25086,7 +26312,7 @@
         <v>27330.54376346776</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25119,7 +26345,7 @@
         <v>26312.54186896471</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25152,7 +26378,7 @@
         <v>25733.90466896471</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25185,7 +26411,7 @@
         <v>25414.9970166736</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25218,7 +26444,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25251,7 +26477,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25284,7 +26510,7 @@
         <v>25096.19317266459</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25317,7 +26543,7 @@
         <v>25408.39707266459</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25350,7 +26576,7 @@
         <v>25928.39250833737</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25383,7 +26609,7 @@
         <v>25572.06449302206</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25416,7 +26642,7 @@
         <v>25835.02498812758</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25449,7 +26675,7 @@
         <v>26316.78458812758</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25482,7 +26708,7 @@
         <v>26711.52038812758</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25515,7 +26741,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25548,7 +26774,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25581,7 +26807,7 @@
         <v>26775.56288812758</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25614,7 +26840,7 @@
         <v>27192.01888812758</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25647,7 +26873,7 @@
         <v>27867.97428812758</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25680,7 +26906,7 @@
         <v>28127.85448812758</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25713,7 +26939,7 @@
         <v>28646.63888812758</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25746,7 +26972,7 @@
         <v>27982.19948812758</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25779,7 +27005,7 @@
         <v>28485.05868812758</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25812,7 +27038,7 @@
         <v>27876.73798812758</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25845,7 +27071,7 @@
         <v>27558.59318812758</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25878,7 +27104,7 @@
         <v>28071.98078812758</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25911,7 +27137,7 @@
         <v>27891.59858812758</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25944,7 +27170,7 @@
         <v>27751.22958812758</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25977,7 +27203,7 @@
         <v>26878.31713680579</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26010,7 +27236,7 @@
         <v>28274.72073680579</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26043,7 +27269,7 @@
         <v>28563.00053680579</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26076,7 +27302,7 @@
         <v>28301.42443898464</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26109,7 +27335,7 @@
         <v>28509.11883898464</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26142,7 +27368,7 @@
         <v>27976.59022988959</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26175,7 +27401,7 @@
         <v>28226.53312988959</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26208,7 +27434,7 @@
         <v>28525.81522988959</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26241,7 +27467,7 @@
         <v>28785.18322988959</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26274,7 +27500,7 @@
         <v>28845.15871057706</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26307,7 +27533,7 @@
         <v>28611.22991057706</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26340,7 +27566,7 @@
         <v>28691.82471057706</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26373,7 +27599,7 @@
         <v>28407.52471057706</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26406,7 +27632,7 @@
         <v>27824.04943365048</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26439,7 +27665,7 @@
         <v>27773.77773365048</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26472,7 +27698,7 @@
         <v>28200.52163365048</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26505,7 +27731,7 @@
         <v>28314.87023365048</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26538,7 +27764,7 @@
         <v>28398.47223365048</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26571,7 +27797,7 @@
         <v>28458.71083365048</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26604,7 +27830,7 @@
         <v>28610.16313365048</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26637,7 +27863,7 @@
         <v>28534.26598158136</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26670,7 +27896,7 @@
         <v>28369.01297222198</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26703,7 +27929,7 @@
         <v>28256.36017222198</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26736,7 +27962,7 @@
         <v>28126.87497222198</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26769,7 +27995,7 @@
         <v>28126.87497222198</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26802,7 +28028,7 @@
         <v>28395.20997222198</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26835,7 +28061,7 @@
         <v>28504.07107222197</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26901,7 +28127,7 @@
         <v>28060.28927880935</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27033,7 +28259,7 @@
         <v>28347.13077880935</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27066,7 +28292,7 @@
         <v>28873.93267880935</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27099,7 +28325,7 @@
         <v>28234.26467880935</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27132,7 +28358,7 @@
         <v>28526.66547880935</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27165,7 +28391,7 @@
         <v>28653.60297880935</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27198,7 +28424,7 @@
         <v>28785.44407880935</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27231,7 +28457,7 @@
         <v>28623.90777880935</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27264,7 +28490,7 @@
         <v>28417.51427880935</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27297,7 +28523,7 @@
         <v>28378.93857880935</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27330,7 +28556,7 @@
         <v>28190.77717880935</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27363,7 +28589,7 @@
         <v>28022.81277880935</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27396,7 +28622,7 @@
         <v>27855.84017880935</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27429,7 +28655,7 @@
         <v>27950.72449885597</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27462,7 +28688,7 @@
         <v>27494.84969885597</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27495,7 +28721,7 @@
         <v>27078.66499885597</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27528,7 +28754,7 @@
         <v>26456.28179885597</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27561,7 +28787,7 @@
         <v>26839.71539885597</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27594,7 +28820,7 @@
         <v>27025.84269885597</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27627,7 +28853,7 @@
         <v>26828.59195737602</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27759,7 +28985,7 @@
         <v>26404.47511215458</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27792,7 +29018,7 @@
         <v>26603.47991215458</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29442,7 +30668,7 @@
         <v>24373.32340335403</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29475,7 +30701,7 @@
         <v>24335.04840335403</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29541,7 +30767,7 @@
         <v>24433.19080335403</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30102,7 +31328,7 @@
         <v>25028.97780766923</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30135,7 +31361,7 @@
         <v>24986.92800766923</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30168,7 +31394,7 @@
         <v>25027.08880766923</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30201,7 +31427,7 @@
         <v>25028.30480766923</v>
       </c>
       <c r="H850" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30234,7 +31460,7 @@
         <v>25063.17770766923</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30267,7 +31493,7 @@
         <v>25104.32600766923</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30300,7 +31526,7 @@
         <v>25143.08830766923</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30333,7 +31559,7 @@
         <v>25237.07530766923</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30366,7 +31592,7 @@
         <v>25204.82310766923</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30399,7 +31625,7 @@
         <v>24892.05030766923</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30432,7 +31658,7 @@
         <v>24568.36300766923</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30465,7 +31691,7 @@
         <v>24731.83950766923</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30498,7 +31724,7 @@
         <v>24875.25291045474</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30531,7 +31757,7 @@
         <v>24941.8615475021</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30564,7 +31790,7 @@
         <v>25006.8161475021</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30597,7 +31823,7 @@
         <v>25083.51504564853</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30630,7 +31856,7 @@
         <v>25176.70546602062</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30663,7 +31889,7 @@
         <v>25115.15456602062</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30696,7 +31922,7 @@
         <v>25190.87316602062</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30729,7 +31955,7 @@
         <v>25050.15698824284</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30762,7 +31988,7 @@
         <v>25050.15698824284</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30795,7 +32021,7 @@
         <v>25062.24908824284</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30828,7 +32054,7 @@
         <v>25015.17698824284</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30861,7 +32087,7 @@
         <v>24980.31158824284</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30894,7 +32120,7 @@
         <v>24988.71138824284</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30927,7 +32153,7 @@
         <v>25058.14358824284</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30960,7 +32186,7 @@
         <v>25114.10228824284</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30993,7 +32219,7 @@
         <v>25208.89888824284</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31026,7 +32252,7 @@
         <v>25245.04788152402</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31059,7 +32285,7 @@
         <v>25296.69016693526</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31092,7 +32318,7 @@
         <v>25171.08446693526</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31125,7 +32351,7 @@
         <v>25070.88046693526</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31158,7 +32384,7 @@
         <v>24934.70846693526</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31191,7 +32417,7 @@
         <v>25067.20976693526</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31224,7 +32450,7 @@
         <v>25124.49686693526</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31257,7 +32483,7 @@
         <v>25120.74566693526</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31290,7 +32516,7 @@
         <v>25120.74566693526</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31323,7 +32549,7 @@
         <v>25155.37258228796</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31356,7 +32582,7 @@
         <v>25141.87278228796</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31389,7 +32615,7 @@
         <v>25104.18048228796</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31422,7 +32648,7 @@
         <v>25123.61658228796</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31455,7 +32681,7 @@
         <v>25142.29098228796</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31488,7 +32714,7 @@
         <v>25140.63028228796</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31521,7 +32747,7 @@
         <v>25140.63028228796</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31554,7 +32780,7 @@
         <v>25093.23810930195</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31587,7 +32813,7 @@
         <v>25095.22150810324</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31620,7 +32846,7 @@
         <v>25079.36939094457</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31653,7 +32879,7 @@
         <v>25001.60499094457</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31686,7 +32912,7 @@
         <v>24976.08381565589</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31719,7 +32945,7 @@
         <v>25179.3875403672</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31752,7 +32978,7 @@
         <v>25176.2507403672</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31785,7 +33011,7 @@
         <v>25292.8700403672</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31818,7 +33044,7 @@
         <v>25382.77124129056</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31851,7 +33077,7 @@
         <v>25382.77124129056</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31884,7 +33110,7 @@
         <v>25396.51894129056</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31917,7 +33143,7 @@
         <v>25786.61044129056</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31950,7 +33176,7 @@
         <v>25786.61044129056</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31983,7 +33209,7 @@
         <v>25989.26284816749</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32016,7 +33242,7 @@
         <v>25929.36914816749</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32049,7 +33275,7 @@
         <v>26018.5862481675</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32082,7 +33308,7 @@
         <v>25951.09256772673</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32115,7 +33341,7 @@
         <v>26001.42379190255</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32148,7 +33374,7 @@
         <v>25834.09277923145</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32181,7 +33407,7 @@
         <v>25993.12774287198</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32214,7 +33440,7 @@
         <v>26035.46114287198</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32247,7 +33473,7 @@
         <v>26299.82564287198</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32280,7 +33506,7 @@
         <v>26182.79154287198</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32313,7 +33539,7 @@
         <v>26243.44216857845</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32346,7 +33572,7 @@
         <v>26076.68046857845</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32379,7 +33605,7 @@
         <v>26142.08746857845</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32412,7 +33638,7 @@
         <v>25184.32756857845</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32445,7 +33671,7 @@
         <v>25295.77436857845</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32478,7 +33704,7 @@
         <v>25208.96376857845</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32511,7 +33737,7 @@
         <v>25208.96376857845</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32544,7 +33770,7 @@
         <v>25464.18129102397</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32577,7 +33803,7 @@
         <v>25247.99335874375</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32610,7 +33836,7 @@
         <v>25247.99335874375</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32643,7 +33869,7 @@
         <v>25258.52565874375</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32676,7 +33902,7 @@
         <v>25219.57925874375</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32709,7 +33935,7 @@
         <v>25198.31278170434</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32742,7 +33968,7 @@
         <v>25198.31278170434</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32775,7 +34001,7 @@
         <v>24948.79985841227</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32808,7 +34034,7 @@
         <v>24779.99705841227</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32841,7 +34067,7 @@
         <v>24779.99705841227</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32874,7 +34100,7 @@
         <v>24758.47345841227</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32907,7 +34133,7 @@
         <v>24758.47345841227</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32940,7 +34166,7 @@
         <v>24791.51675841227</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32973,7 +34199,7 @@
         <v>24774.51395841227</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33006,7 +34232,7 @@
         <v>24800.19685841227</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33039,7 +34265,7 @@
         <v>24817.69945841227</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33072,7 +34298,7 @@
         <v>24831.00585841227</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33105,7 +34331,7 @@
         <v>24809.32345841227</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34623,7 +35849,7 @@
         <v>24981.78975364507</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34656,7 +35882,7 @@
         <v>24981.78975364507</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34689,7 +35915,7 @@
         <v>24963.92855364507</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34722,7 +35948,7 @@
         <v>25002.33965364507</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34755,7 +35981,7 @@
         <v>25002.33965364507</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34788,7 +36014,7 @@
         <v>25036.88175364507</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34821,7 +36047,7 @@
         <v>25033.94025364507</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34854,7 +36080,7 @@
         <v>25075.96165364507</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34887,7 +36113,7 @@
         <v>25124.35955364507</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34920,7 +36146,7 @@
         <v>25077.94735364508</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34953,7 +36179,7 @@
         <v>25077.94735364508</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34986,7 +36212,7 @@
         <v>25076.26025364508</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35019,7 +36245,7 @@
         <v>25106.54635364508</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35052,7 +36278,7 @@
         <v>25109.50806588526</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35085,7 +36311,7 @@
         <v>25104.81756588526</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35118,7 +36344,7 @@
         <v>25040.73586588526</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35151,7 +36377,7 @@
         <v>25040.73586588526</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35184,7 +36410,7 @@
         <v>25040.73586588526</v>
       </c>
       <c r="H1001" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35217,7 +36443,7 @@
         <v>24977.10866588526</v>
       </c>
       <c r="H1002" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35250,7 +36476,7 @@
         <v>24977.10866588526</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35283,7 +36509,7 @@
         <v>24983.63986588526</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35316,7 +36542,7 @@
         <v>24979.59636588526</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35349,7 +36575,7 @@
         <v>24924.58536588526</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35382,7 +36608,7 @@
         <v>24924.58536588526</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35415,7 +36641,7 @@
         <v>24963.94426588526</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35448,7 +36674,7 @@
         <v>24963.94426588526</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35481,7 +36707,7 @@
         <v>24953.97256588527</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35514,7 +36740,7 @@
         <v>24983.12086588527</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35547,7 +36773,7 @@
         <v>25010.01756588527</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35580,7 +36806,7 @@
         <v>24910.94956588527</v>
       </c>
       <c r="H1013" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35613,7 +36839,7 @@
         <v>24940.41466588527</v>
       </c>
       <c r="H1014" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35646,7 +36872,7 @@
         <v>24940.41466588527</v>
       </c>
       <c r="H1015" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35679,7 +36905,7 @@
         <v>24973.58108926189</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35712,7 +36938,7 @@
         <v>25015.20648926189</v>
       </c>
       <c r="H1017" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35745,7 +36971,7 @@
         <v>24952.2781892619</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35778,7 +37004,7 @@
         <v>25046.8757892619</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35811,7 +37037,7 @@
         <v>25046.8757892619</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35844,7 +37070,7 @@
         <v>25163.67827815079</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35877,7 +37103,7 @@
         <v>25150.01317815079</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35910,7 +37136,7 @@
         <v>25150.01317815079</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35943,7 +37169,7 @@
         <v>25186.86107815079</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35976,7 +37202,7 @@
         <v>25186.86107815079</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36009,7 +37235,7 @@
         <v>25186.86107815079</v>
       </c>
       <c r="H1026" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36042,7 +37268,7 @@
         <v>25186.86107815079</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36075,7 +37301,7 @@
         <v>25118.92687815079</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36108,7 +37334,7 @@
         <v>25133.18477815079</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36141,7 +37367,7 @@
         <v>24923.81437815079</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36174,7 +37400,7 @@
         <v>24923.81437815079</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36207,7 +37433,7 @@
         <v>24923.81437815079</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36240,7 +37466,7 @@
         <v>24848.38267815079</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36273,7 +37499,7 @@
         <v>24848.38267815079</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36306,7 +37532,7 @@
         <v>24843.70837815079</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36339,7 +37565,7 @@
         <v>24835.01207815079</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36372,7 +37598,7 @@
         <v>24314.96487815079</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36405,7 +37631,7 @@
         <v>24240.96907815079</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36438,7 +37664,7 @@
         <v>24119.27517815079</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36471,7 +37697,7 @@
         <v>23852.09467815079</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36504,7 +37730,7 @@
         <v>23982.94897815079</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36537,7 +37763,7 @@
         <v>24056.70317815079</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36570,7 +37796,7 @@
         <v>23954.38417815079</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36603,7 +37829,7 @@
         <v>23914.87107815079</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36636,7 +37862,7 @@
         <v>23920.09337815079</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36669,7 +37895,7 @@
         <v>23886.45307815079</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36702,7 +37928,7 @@
         <v>24135.04787815079</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36735,7 +37961,7 @@
         <v>24128.29377815079</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -42411,7 +43637,7 @@
         <v>24147.18533702473</v>
       </c>
       <c r="H1220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -42444,7 +43670,7 @@
         <v>24092.68713702473</v>
       </c>
       <c r="H1221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -42477,7 +43703,7 @@
         <v>23956.47745361987</v>
       </c>
       <c r="H1222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -42510,7 +43736,7 @@
         <v>23963.06785361987</v>
       </c>
       <c r="H1223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -42543,7 +43769,7 @@
         <v>23960.22485361987</v>
       </c>
       <c r="H1224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -42576,7 +43802,7 @@
         <v>23896.75535361987</v>
       </c>
       <c r="H1225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -42609,7 +43835,7 @@
         <v>23994.93865361987</v>
       </c>
       <c r="H1226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -43269,7 +44495,7 @@
         <v>24723.63040320337</v>
       </c>
       <c r="H1246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -43302,7 +44528,7 @@
         <v>24723.63040320337</v>
       </c>
       <c r="H1247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
@@ -43335,7 +44561,7 @@
         <v>24766.21020320337</v>
       </c>
       <c r="H1248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -43368,7 +44594,7 @@
         <v>24774.72234912611</v>
       </c>
       <c r="H1249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -43401,7 +44627,7 @@
         <v>24772.80374912611</v>
       </c>
       <c r="H1250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -43434,7 +44660,7 @@
         <v>24799.32164912611</v>
       </c>
       <c r="H1251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -43467,7 +44693,7 @@
         <v>24791.93004912611</v>
       </c>
       <c r="H1252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -43500,7 +44726,7 @@
         <v>24804.00444912611</v>
       </c>
       <c r="H1253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -43533,7 +44759,7 @@
         <v>24808.46734912611</v>
       </c>
       <c r="H1254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -43566,7 +44792,7 @@
         <v>24808.46734912611</v>
       </c>
       <c r="H1255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -43599,7 +44825,7 @@
         <v>24857.71604912611</v>
       </c>
       <c r="H1256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -43665,7 +44891,7 @@
         <v>24823.61184912611</v>
       </c>
       <c r="H1258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -43698,7 +44924,7 @@
         <v>24949.80544912611</v>
       </c>
       <c r="H1259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -43731,7 +44957,7 @@
         <v>24949.80544912611</v>
       </c>
       <c r="H1260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -43764,7 +44990,7 @@
         <v>24870.81644912611</v>
       </c>
       <c r="H1261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -43797,7 +45023,7 @@
         <v>24951.10374912611</v>
       </c>
       <c r="H1262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -43830,7 +45056,7 @@
         <v>24922.70004912611</v>
       </c>
       <c r="H1263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -43863,7 +45089,7 @@
         <v>24917.70514912611</v>
       </c>
       <c r="H1264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -43896,7 +45122,7 @@
         <v>24843.42144912611</v>
       </c>
       <c r="H1265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -43929,7 +45155,7 @@
         <v>24898.60914912611</v>
       </c>
       <c r="H1266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -43962,7 +45188,7 @@
         <v>24834.02824912611</v>
       </c>
       <c r="H1267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -43995,7 +45221,7 @@
         <v>24761.59104912611</v>
       </c>
       <c r="H1268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -44028,7 +45254,7 @@
         <v>25109.47004912611</v>
       </c>
       <c r="H1269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -44061,7 +45287,7 @@
         <v>25109.47004912611</v>
       </c>
       <c r="H1270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -44094,7 +45320,7 @@
         <v>25109.47004912611</v>
       </c>
       <c r="H1271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -44127,7 +45353,7 @@
         <v>25104.98024912611</v>
       </c>
       <c r="H1272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -44193,7 +45419,7 @@
         <v>25074.63964912611</v>
       </c>
       <c r="H1274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -44226,7 +45452,7 @@
         <v>25037.97034912611</v>
       </c>
       <c r="H1275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -44259,7 +45485,7 @@
         <v>25132.3180491261</v>
       </c>
       <c r="H1276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -44292,7 +45518,7 @@
         <v>25141.9643491261</v>
       </c>
       <c r="H1277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -44325,7 +45551,7 @@
         <v>25179.22004912611</v>
       </c>
       <c r="H1278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -44358,7 +45584,7 @@
         <v>25165.13554912611</v>
       </c>
       <c r="H1279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -44457,7 +45683,7 @@
         <v>25404.46554912611</v>
       </c>
       <c r="H1282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -44490,7 +45716,7 @@
         <v>25485.51034912611</v>
       </c>
       <c r="H1283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -44523,7 +45749,7 @@
         <v>25651.86762886811</v>
       </c>
       <c r="H1284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -44556,7 +45782,7 @@
         <v>25648.62482886811</v>
       </c>
       <c r="H1285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -44589,7 +45815,7 @@
         <v>25648.62482886811</v>
       </c>
       <c r="H1286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -44622,7 +45848,7 @@
         <v>25648.62482886811</v>
       </c>
       <c r="H1287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -44655,7 +45881,7 @@
         <v>25580.13802886811</v>
       </c>
       <c r="H1288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -44688,7 +45914,7 @@
         <v>25589.79662886811</v>
       </c>
       <c r="H1289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -44721,7 +45947,7 @@
         <v>25598.4064288681</v>
       </c>
       <c r="H1290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -44754,7 +45980,7 @@
         <v>25598.4064288681</v>
       </c>
       <c r="H1291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -44787,7 +46013,7 @@
         <v>25590.1016288681</v>
       </c>
       <c r="H1292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -44820,7 +46046,7 @@
         <v>25585.3590288681</v>
       </c>
       <c r="H1293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -44853,7 +46079,7 @@
         <v>25611.8743288681</v>
       </c>
       <c r="H1294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -44886,7 +46112,7 @@
         <v>25491.31798088345</v>
       </c>
       <c r="H1295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -45018,7 +46244,7 @@
         <v>25527.95658088346</v>
       </c>
       <c r="H1299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -45051,7 +46277,7 @@
         <v>25514.87388088346</v>
       </c>
       <c r="H1300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -45084,7 +46310,7 @@
         <v>25551.57078088346</v>
       </c>
       <c r="H1301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -45117,7 +46343,7 @@
         <v>25551.57078088346</v>
       </c>
       <c r="H1302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -45150,7 +46376,7 @@
         <v>25554.25948088345</v>
       </c>
       <c r="H1303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -45183,7 +46409,7 @@
         <v>25619.39998088346</v>
       </c>
       <c r="H1304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -45216,7 +46442,7 @@
         <v>25665.01838088346</v>
       </c>
       <c r="H1305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -45249,7 +46475,7 @@
         <v>25661.26588088346</v>
       </c>
       <c r="H1306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -45282,7 +46508,7 @@
         <v>25661.26588088346</v>
       </c>
       <c r="H1307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -45315,7 +46541,7 @@
         <v>25579.08245697145</v>
       </c>
       <c r="H1308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -45348,7 +46574,7 @@
         <v>25581.68065697145</v>
       </c>
       <c r="H1309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -45381,7 +46607,7 @@
         <v>25594.86265697145</v>
       </c>
       <c r="H1310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -45414,7 +46640,7 @@
         <v>25598.72965697145</v>
       </c>
       <c r="H1311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -45447,7 +46673,7 @@
         <v>25598.52965697145</v>
       </c>
       <c r="H1312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -45458,6 +46684,6 @@
       <c r="M1312" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ETH.xlsx
+++ b/BackTest/2019-10-26 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5047,11 +5047,9 @@
         <v>1619.413065723237</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>197400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5086,11 +5084,9 @@
         <v>1222.734265723238</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>197900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5125,11 +5121,9 @@
         <v>1322.699365723237</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>197800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5164,11 +5158,9 @@
         <v>1008.000565723237</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>198200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5203,11 +5195,9 @@
         <v>1154.836265723237</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>198000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5242,11 +5232,9 @@
         <v>2069.258327966602</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>199000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5281,11 +5269,9 @@
         <v>3383.990359812474</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>200200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5468,18 +5454,16 @@
         <v>4135.304925900538</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -5505,15 +5489,11 @@
         <v>5386.734525900538</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5542,15 +5522,11 @@
         <v>4586.831441396906</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5583,11 +5559,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5620,11 +5592,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5657,11 +5625,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5694,11 +5658,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5691,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5768,11 +5724,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +5757,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +5790,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +5823,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5916,11 +5856,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5953,11 +5889,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5990,11 +5922,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6027,11 +5955,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +5988,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6101,11 +6021,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6138,11 +6054,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6175,11 +6087,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6212,11 +6120,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6245,15 +6149,11 @@
         <v>6975.578441396905</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6282,15 +6182,11 @@
         <v>7341.490341396905</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6319,15 +6215,11 @@
         <v>8082.719441396905</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6356,15 +6248,11 @@
         <v>9424.176741396905</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6393,15 +6281,11 @@
         <v>6461.898819947905</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6430,15 +6314,11 @@
         <v>6743.386519947905</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6467,15 +6347,11 @@
         <v>7134.993719947905</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6504,15 +6380,11 @@
         <v>6957.599619947905</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6541,15 +6413,11 @@
         <v>6244.067719947905</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6578,15 +6446,11 @@
         <v>5902.342719947905</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6615,15 +6479,11 @@
         <v>6172.998119947904</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6652,15 +6512,11 @@
         <v>6274.941719947904</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6689,15 +6545,11 @@
         <v>6232.168219947904</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6726,15 +6578,11 @@
         <v>6232.168219947904</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6763,15 +6611,11 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6800,17 +6644,11 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>207200</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6839,15 +6677,11 @@
         <v>6096.237219947904</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6876,15 +6710,11 @@
         <v>6157.791119947904</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6913,15 +6743,11 @@
         <v>6270.042019947904</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6950,15 +6776,11 @@
         <v>6238.736519947904</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6991,11 +6813,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7028,11 +6846,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7065,11 +6879,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7102,11 +6912,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7139,11 +6945,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7176,11 +6978,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +7011,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7250,11 +7044,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7287,11 +7077,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7324,11 +7110,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7361,11 +7143,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7398,11 +7176,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7435,11 +7209,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7472,11 +7242,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7509,11 +7275,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7308,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7583,11 +7341,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7620,11 +7374,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7657,11 +7407,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +7440,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7731,11 +7473,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7768,11 +7506,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7805,11 +7539,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7842,11 +7572,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7879,11 +7605,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7916,11 +7638,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7953,11 +7671,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7990,11 +7704,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8027,11 +7737,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8064,11 +7770,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8101,11 +7803,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8138,11 +7836,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8175,11 +7869,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8212,11 +7902,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +7935,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8286,11 +7968,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8323,11 +8001,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8360,11 +8034,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8397,11 +8067,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8430,15 +8096,11 @@
         <v>13482.45907424682</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8467,15 +8129,11 @@
         <v>13101.48687424682</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8504,15 +8162,11 @@
         <v>13254.72687424682</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8541,15 +8195,11 @@
         <v>13513.18737424682</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8578,15 +8228,11 @@
         <v>14769.46114425148</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8619,11 +8265,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8652,15 +8294,11 @@
         <v>15962.19004425148</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8689,15 +8327,11 @@
         <v>16583.73017215846</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8730,11 +8364,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8397,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8804,11 +8430,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8841,11 +8463,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8878,11 +8496,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8915,11 +8529,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8952,11 +8562,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8989,11 +8595,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9022,15 +8624,11 @@
         <v>15903.10504425148</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9059,15 +8657,11 @@
         <v>15903.10504425148</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9096,15 +8690,11 @@
         <v>15442.88134425148</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9137,11 +8727,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9174,11 +8760,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9211,11 +8793,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9248,11 +8826,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9285,11 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9322,11 +8892,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9359,11 +8925,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9396,11 +8958,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9433,11 +8991,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9470,11 +9024,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9507,11 +9057,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9544,11 +9090,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9581,11 +9123,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9618,11 +9156,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9655,11 +9189,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9692,11 +9222,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9729,11 +9255,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9766,11 +9288,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9803,11 +9321,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9840,11 +9354,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9877,11 +9387,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9914,11 +9420,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9951,11 +9453,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +9486,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10025,11 +9519,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10062,11 +9552,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10099,11 +9585,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10136,11 +9618,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10173,11 +9651,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10210,11 +9684,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10247,11 +9717,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10284,11 +9750,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10321,11 +9783,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10358,11 +9816,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10395,11 +9849,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10432,11 +9882,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10469,11 +9915,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10506,11 +9948,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10543,11 +9981,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10580,11 +10014,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10617,11 +10047,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10654,11 +10080,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10691,11 +10113,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10728,11 +10146,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10765,11 +10179,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10802,11 +10212,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10839,11 +10245,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10876,11 +10278,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10913,11 +10311,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10950,11 +10344,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10987,11 +10377,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11024,11 +10410,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11061,11 +10443,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11098,11 +10476,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11135,11 +10509,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11172,11 +10542,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +10575,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11246,11 +10608,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11283,11 +10641,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11320,11 +10674,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11357,11 +10707,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11394,11 +10740,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11431,11 +10773,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11468,11 +10806,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11505,11 +10839,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11542,11 +10872,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11579,11 +10905,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11616,11 +10938,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11653,11 +10971,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11690,11 +11004,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11727,11 +11037,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11764,11 +11070,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11801,11 +11103,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11838,11 +11136,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11875,11 +11169,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11912,11 +11202,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11949,11 +11235,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11986,11 +11268,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12023,11 +11301,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12060,11 +11334,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12097,11 +11367,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12134,11 +11400,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12171,11 +11433,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12208,11 +11466,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12245,11 +11499,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12282,11 +11532,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12319,11 +11565,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12356,11 +11598,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12393,11 +11631,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +11664,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12467,11 +11697,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12504,11 +11730,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12541,11 +11763,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12578,11 +11796,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12615,11 +11829,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12652,11 +11862,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12689,11 +11895,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12726,11 +11928,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12763,11 +11961,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12800,11 +11994,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12837,11 +12027,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12874,11 +12060,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12911,11 +12093,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12948,11 +12126,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12985,11 +12159,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13022,11 +12192,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13059,11 +12225,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13096,11 +12258,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13133,11 +12291,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13170,11 +12324,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13207,11 +12357,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13244,11 +12390,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13281,11 +12423,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13318,11 +12456,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13355,11 +12489,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13392,11 +12522,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13429,11 +12555,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13466,11 +12588,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13503,11 +12621,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13540,11 +12654,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13577,11 +12687,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13614,11 +12720,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +12753,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13688,11 +12786,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13725,11 +12819,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13762,11 +12852,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13799,11 +12885,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13836,11 +12918,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13873,11 +12951,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13910,11 +12984,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13947,11 +13017,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13984,11 +13050,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14021,11 +13083,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14058,11 +13116,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14095,11 +13149,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14132,11 +13182,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14169,11 +13215,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14206,11 +13248,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14243,11 +13281,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14280,11 +13314,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14317,11 +13347,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14354,11 +13380,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14391,11 +13413,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14428,11 +13446,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14465,11 +13479,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14502,11 +13512,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14539,11 +13545,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14576,11 +13578,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14613,11 +13611,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14650,11 +13644,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14687,11 +13677,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14724,11 +13710,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14761,11 +13743,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14798,11 +13776,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14835,11 +13809,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +13842,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14909,11 +13875,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14946,11 +13908,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14983,11 +13941,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15020,11 +13974,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15057,11 +14007,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15094,11 +14040,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15131,11 +14073,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15168,11 +14106,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15205,11 +14139,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15242,11 +14172,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15279,11 +14205,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15316,11 +14238,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15353,11 +14271,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15390,11 +14304,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15427,11 +14337,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15464,11 +14370,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15501,11 +14403,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15538,11 +14436,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15575,11 +14469,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15612,11 +14502,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15649,11 +14535,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15686,11 +14568,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15723,11 +14601,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15760,11 +14634,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15797,11 +14667,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15834,11 +14700,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15871,11 +14733,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15908,11 +14766,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15945,11 +14799,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15982,11 +14832,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16019,11 +14865,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16056,11 +14898,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +14931,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16130,11 +14964,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16167,11 +14997,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16204,11 +15030,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16241,11 +15063,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16278,11 +15096,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16315,11 +15129,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16352,11 +15162,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16389,11 +15195,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16426,11 +15228,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16463,11 +15261,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16500,11 +15294,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16537,11 +15327,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16574,11 +15360,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16611,11 +15393,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16648,11 +15426,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16685,11 +15459,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16722,11 +15492,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16759,11 +15525,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16796,11 +15558,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16833,11 +15591,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16870,11 +15624,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16907,11 +15657,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16944,11 +15690,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16981,11 +15723,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17018,11 +15756,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17055,11 +15789,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17092,11 +15822,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17129,11 +15855,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17166,11 +15888,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17203,11 +15921,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17240,11 +15954,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17277,11 +15987,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +16020,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17351,11 +16053,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17388,11 +16086,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17425,11 +16119,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17462,11 +16152,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17499,11 +16185,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17536,11 +16218,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17573,11 +16251,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17610,11 +16284,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17647,11 +16317,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17684,11 +16350,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17721,11 +16383,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17758,11 +16416,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17795,11 +16449,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17832,11 +16482,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17869,11 +16515,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17906,11 +16548,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17943,11 +16581,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17980,11 +16614,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18017,11 +16647,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18054,11 +16680,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18091,11 +16713,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18128,11 +16746,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18165,11 +16779,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18202,11 +16812,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18239,11 +16845,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18276,11 +16878,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18313,11 +16911,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18350,11 +16944,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18387,11 +16977,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18424,11 +17010,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18461,11 +17043,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18498,11 +17076,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +17109,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18572,11 +17142,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18609,11 +17175,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18646,11 +17208,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18683,11 +17241,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18720,11 +17274,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18757,11 +17307,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18794,11 +17340,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18831,11 +17373,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18868,11 +17406,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18905,11 +17439,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18942,11 +17472,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18979,11 +17505,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19016,11 +17538,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19053,11 +17571,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19090,11 +17604,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19127,11 +17637,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19164,11 +17670,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19201,11 +17703,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19238,11 +17736,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19275,11 +17769,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19312,11 +17802,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19349,11 +17835,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19386,11 +17868,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19423,11 +17901,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19460,11 +17934,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19497,11 +17967,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19534,11 +18000,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19571,11 +18033,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19608,11 +18066,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19645,11 +18099,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19682,11 +18132,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19719,11 +18165,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +18198,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19793,11 +18231,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19830,11 +18264,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19867,11 +18297,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19904,11 +18330,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19941,11 +18363,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19978,11 +18396,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20015,11 +18429,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20052,11 +18462,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20089,11 +18495,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20126,11 +18528,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20163,11 +18561,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20200,11 +18594,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20237,11 +18627,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20274,11 +18660,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20311,11 +18693,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20348,11 +18726,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20385,11 +18759,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20422,11 +18792,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20459,11 +18825,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20496,11 +18858,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20533,11 +18891,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20570,11 +18924,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20607,11 +18957,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20644,11 +18990,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20681,11 +19023,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20718,11 +19056,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20755,11 +19089,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20792,11 +19122,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20829,11 +19155,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20866,11 +19188,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20903,11 +19221,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20940,11 +19254,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +19287,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21014,11 +19320,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21051,11 +19353,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21088,11 +19386,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21125,11 +19419,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21162,11 +19452,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21199,11 +19485,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21236,11 +19518,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21273,11 +19551,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21310,11 +19584,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21347,11 +19617,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21384,11 +19650,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21421,11 +19683,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21458,11 +19716,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21495,11 +19749,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21532,11 +19782,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21569,11 +19815,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21606,11 +19848,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21643,11 +19881,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21680,11 +19914,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21717,11 +19947,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21754,11 +19980,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21791,11 +20013,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21828,11 +20046,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21865,11 +20079,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21902,11 +20112,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21939,11 +20145,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21976,11 +20178,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22013,11 +20211,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22050,11 +20244,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22087,11 +20277,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22124,11 +20310,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22161,11 +20343,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22198,11 +20376,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22235,11 +20409,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22272,11 +20442,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22309,11 +20475,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22346,11 +20508,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22383,11 +20541,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22420,11 +20574,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22457,11 +20607,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22494,11 +20640,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22531,11 +20673,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22568,11 +20706,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22605,11 +20739,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22642,11 +20772,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22679,11 +20805,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22716,11 +20838,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22753,11 +20871,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22790,11 +20904,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22827,11 +20937,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22864,11 +20970,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22901,11 +21003,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22938,11 +21036,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22975,11 +21069,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23012,11 +21102,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23049,11 +21135,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23086,11 +21168,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23123,11 +21201,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23160,11 +21234,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23197,11 +21267,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23234,11 +21300,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23271,11 +21333,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23308,11 +21366,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23345,11 +21399,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23382,11 +21432,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +21465,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23456,11 +21498,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23493,11 +21531,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23530,11 +21564,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23567,11 +21597,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23604,11 +21630,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23641,11 +21663,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23678,11 +21696,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23715,11 +21729,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23752,11 +21762,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23789,11 +21795,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23826,11 +21828,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23863,11 +21861,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23900,11 +21894,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23937,11 +21927,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23974,11 +21960,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24011,11 +21993,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24048,11 +22026,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24085,11 +22059,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24122,11 +22092,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24159,11 +22125,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24196,11 +22158,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24233,11 +22191,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24270,11 +22224,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24307,11 +22257,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24344,11 +22290,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24381,11 +22323,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24418,11 +22356,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24455,11 +22389,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24492,11 +22422,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24529,11 +22455,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24566,11 +22488,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24603,11 +22521,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24640,11 +22554,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24677,11 +22587,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24714,11 +22620,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24751,11 +22653,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24788,11 +22686,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24825,11 +22719,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24862,11 +22752,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24899,11 +22785,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24936,11 +22818,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24973,11 +22851,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -25010,11 +22884,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25047,11 +22917,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -25084,11 +22950,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25121,11 +22983,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25158,11 +23016,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25195,11 +23049,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25232,11 +23082,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25269,11 +23115,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25306,11 +23148,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25343,11 +23181,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25380,11 +23214,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25417,11 +23247,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25454,11 +23280,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25491,11 +23313,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25528,11 +23346,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25565,11 +23379,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25602,11 +23412,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25639,11 +23445,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25676,11 +23478,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25713,11 +23511,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25750,11 +23544,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25787,11 +23577,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25824,11 +23610,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25861,11 +23643,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25898,11 +23676,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25935,11 +23709,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25972,11 +23742,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -26009,11 +23775,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26046,11 +23808,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -26079,16 +23837,14 @@
         <v>22565.22370959482</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
       <c r="M688" t="inlineStr"/>
     </row>
     <row r="689">
@@ -26114,7 +23870,7 @@
         <v>22972.39700959482</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26246,7 +24002,7 @@
         <v>24681.26475957223</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26279,7 +24035,7 @@
         <v>26538.07115957223</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26312,7 +24068,7 @@
         <v>27330.54376346776</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26345,7 +24101,7 @@
         <v>26312.54186896471</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26378,7 +24134,7 @@
         <v>25733.90466896471</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26411,7 +24167,7 @@
         <v>25414.9970166736</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26444,7 +24200,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26477,7 +24233,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26510,7 +24266,7 @@
         <v>25096.19317266459</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26543,7 +24299,7 @@
         <v>25408.39707266459</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26576,7 +24332,7 @@
         <v>25928.39250833737</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26609,7 +24365,7 @@
         <v>25572.06449302206</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26642,7 +24398,7 @@
         <v>25835.02498812758</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26675,7 +24431,7 @@
         <v>26316.78458812758</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26708,7 +24464,7 @@
         <v>26711.52038812758</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26741,7 +24497,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26774,7 +24530,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26807,7 +24563,7 @@
         <v>26775.56288812758</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26840,7 +24596,7 @@
         <v>27192.01888812758</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26873,7 +24629,7 @@
         <v>27867.97428812758</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26906,7 +24662,7 @@
         <v>28127.85448812758</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26939,7 +24695,7 @@
         <v>28646.63888812758</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26972,7 +24728,7 @@
         <v>27982.19948812758</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27005,7 +24761,7 @@
         <v>28485.05868812758</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27038,7 +24794,7 @@
         <v>27876.73798812758</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27071,7 +24827,7 @@
         <v>27558.59318812758</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27104,7 +24860,7 @@
         <v>28071.98078812758</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27137,7 +24893,7 @@
         <v>27891.59858812758</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27170,7 +24926,7 @@
         <v>27751.22958812758</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27203,7 +24959,7 @@
         <v>26878.31713680579</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27236,7 +24992,7 @@
         <v>28274.72073680579</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27269,7 +25025,7 @@
         <v>28563.00053680579</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27302,7 +25058,7 @@
         <v>28301.42443898464</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27335,7 +25091,7 @@
         <v>28509.11883898464</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27368,7 +25124,7 @@
         <v>27976.59022988959</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27401,7 +25157,7 @@
         <v>28226.53312988959</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27434,7 +25190,7 @@
         <v>28525.81522988959</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27467,7 +25223,7 @@
         <v>28785.18322988959</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27500,7 +25256,7 @@
         <v>28845.15871057706</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27533,7 +25289,7 @@
         <v>28611.22991057706</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27566,7 +25322,7 @@
         <v>28691.82471057706</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27599,7 +25355,7 @@
         <v>28407.52471057706</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27632,7 +25388,7 @@
         <v>27824.04943365048</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27665,7 +25421,7 @@
         <v>27773.77773365048</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27698,7 +25454,7 @@
         <v>28200.52163365048</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27731,7 +25487,7 @@
         <v>28314.87023365048</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27764,7 +25520,7 @@
         <v>28398.47223365048</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27797,7 +25553,7 @@
         <v>28458.71083365048</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27830,7 +25586,7 @@
         <v>28610.16313365048</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27863,7 +25619,7 @@
         <v>28534.26598158136</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27896,7 +25652,7 @@
         <v>28369.01297222198</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27929,7 +25685,7 @@
         <v>28256.36017222198</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28259,7 +26015,7 @@
         <v>28347.13077880935</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28292,7 +26048,7 @@
         <v>28873.93267880935</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28325,7 +26081,7 @@
         <v>28234.26467880935</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28358,7 +26114,7 @@
         <v>28526.66547880935</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28424,7 +26180,7 @@
         <v>28785.44407880935</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28457,7 +26213,7 @@
         <v>28623.90777880935</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28490,7 +26246,7 @@
         <v>28417.51427880935</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28523,7 +26279,7 @@
         <v>28378.93857880935</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28556,7 +26312,7 @@
         <v>28190.77717880935</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28589,7 +26345,7 @@
         <v>28022.81277880935</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28622,7 +26378,7 @@
         <v>27855.84017880935</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28655,7 +26411,7 @@
         <v>27950.72449885597</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28688,7 +26444,7 @@
         <v>27494.84969885597</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28721,7 +26477,7 @@
         <v>27078.66499885597</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28754,7 +26510,7 @@
         <v>26456.28179885597</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28787,7 +26543,7 @@
         <v>26839.71539885597</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28820,7 +26576,7 @@
         <v>27025.84269885597</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28853,7 +26609,7 @@
         <v>26828.59195737602</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28985,7 +26741,7 @@
         <v>26404.47511215458</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -29018,7 +26774,7 @@
         <v>26603.47991215458</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -33671,7 +31427,7 @@
         <v>25295.77436857845</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33704,7 +31460,7 @@
         <v>25208.96376857845</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33836,7 +31592,7 @@
         <v>25247.99335874375</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33869,7 +31625,7 @@
         <v>25258.52565874375</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33935,7 +31691,7 @@
         <v>25198.31278170434</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33968,7 +31724,7 @@
         <v>25198.31278170434</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34001,7 +31757,7 @@
         <v>24948.79985841227</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34034,7 +31790,7 @@
         <v>24779.99705841227</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34067,7 +31823,7 @@
         <v>24779.99705841227</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -34100,7 +31856,7 @@
         <v>24758.47345841227</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -34133,7 +31889,7 @@
         <v>24758.47345841227</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -34166,7 +31922,7 @@
         <v>24791.51675841227</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -34199,7 +31955,7 @@
         <v>24774.51395841227</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34232,7 +31988,7 @@
         <v>24800.19685841227</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -34265,7 +32021,7 @@
         <v>24817.69945841227</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34298,7 +32054,7 @@
         <v>24831.00585841227</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34331,7 +32087,7 @@
         <v>24809.32345841227</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -46684,6 +44440,6 @@
       <c r="M1312" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ETH.xlsx
+++ b/BackTest/2019-10-26 BackTest ETH.xlsx
@@ -5047,9 +5047,11 @@
         <v>1619.413065723237</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>197400</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5084,9 +5086,11 @@
         <v>1222.734265723238</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>197900</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5454,16 +5458,18 @@
         <v>4135.304925900538</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
       <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -5489,11 +5495,15 @@
         <v>5386.734525900538</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5522,11 +5532,15 @@
         <v>4586.831441396906</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5559,7 +5573,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5592,7 +5610,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5625,7 +5647,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5658,7 +5684,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5691,7 +5721,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5724,7 +5758,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5757,7 +5795,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5790,7 +5832,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5823,7 +5869,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5856,7 +5906,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5889,7 +5943,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5922,7 +5980,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5955,7 +6017,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6054,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6021,7 +6091,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6054,7 +6128,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6087,7 +6165,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6120,7 +6202,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6149,11 +6235,15 @@
         <v>6975.578441396905</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +6272,15 @@
         <v>7341.490341396905</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6215,11 +6309,15 @@
         <v>8082.719441396905</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6248,11 +6346,15 @@
         <v>9424.176741396905</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6281,11 +6383,15 @@
         <v>6461.898819947905</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6314,11 +6420,15 @@
         <v>6743.386519947905</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6347,11 +6457,15 @@
         <v>7134.993719947905</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6380,11 +6494,15 @@
         <v>6957.599619947905</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6413,11 +6531,15 @@
         <v>6244.067719947905</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6446,11 +6568,15 @@
         <v>5902.342719947905</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6479,11 +6605,15 @@
         <v>6172.998119947904</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6512,11 +6642,15 @@
         <v>6274.941719947904</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6545,11 +6679,15 @@
         <v>6232.168219947904</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +6716,15 @@
         <v>6232.168219947904</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6611,11 +6753,15 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6644,11 +6790,15 @@
         <v>6051.937219947904</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6677,11 +6827,15 @@
         <v>6096.237219947904</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6710,11 +6864,15 @@
         <v>6157.791119947904</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6743,11 +6901,15 @@
         <v>6270.042019947904</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6776,11 +6938,15 @@
         <v>6238.736519947904</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6813,7 +6979,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6846,7 +7016,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6879,7 +7053,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6912,7 +7090,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6945,7 +7127,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6978,7 +7164,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7011,7 +7201,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7044,7 +7238,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7077,7 +7275,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7110,7 +7312,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7349,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7176,7 +7386,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7209,7 +7423,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7242,7 +7460,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7275,7 +7497,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7308,7 +7534,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7341,7 +7571,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7374,7 +7608,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7407,7 +7645,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7440,7 +7682,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7473,7 +7719,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7506,7 +7756,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7539,7 +7793,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7572,7 +7830,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7605,7 +7867,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7638,7 +7904,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7671,7 +7941,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7704,7 +7978,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7737,7 +8015,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7770,7 +8052,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7803,7 +8089,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7836,7 +8126,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7869,7 +8163,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +8200,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7935,7 +8237,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7968,7 +8274,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8001,7 +8311,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8034,7 +8348,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8067,7 +8385,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8096,11 +8418,15 @@
         <v>13482.45907424682</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8129,11 +8455,15 @@
         <v>13101.48687424682</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8162,11 +8492,15 @@
         <v>13254.72687424682</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8195,11 +8529,15 @@
         <v>13513.18737424682</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8228,11 +8566,15 @@
         <v>14769.46114425148</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8265,7 +8607,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8294,11 +8640,15 @@
         <v>15962.19004425148</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8327,11 +8677,15 @@
         <v>16583.73017215846</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8364,7 +8718,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8397,7 +8755,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8430,7 +8792,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8463,7 +8829,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8496,7 +8866,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8529,7 +8903,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8562,7 +8940,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8595,7 +8977,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8624,11 +9010,15 @@
         <v>15903.10504425148</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8657,11 +9047,15 @@
         <v>15903.10504425148</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8690,11 +9084,15 @@
         <v>15442.88134425148</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8727,7 +9125,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8760,7 +9162,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8793,7 +9199,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8826,7 +9236,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8859,7 +9273,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8892,7 +9310,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8925,7 +9347,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8958,7 +9384,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8991,7 +9421,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9024,7 +9458,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +9495,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9090,7 +9532,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9123,7 +9569,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9156,7 +9606,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9189,7 +9643,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9222,7 +9680,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9255,7 +9717,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9288,7 +9754,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9321,7 +9791,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9354,7 +9828,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9387,7 +9865,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9420,7 +9902,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9939,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9486,7 +9976,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9519,7 +10013,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9552,7 +10050,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9585,7 +10087,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9618,7 +10124,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9651,7 +10161,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9684,7 +10198,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9717,7 +10235,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9750,7 +10272,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9783,7 +10309,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9816,7 +10346,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9849,7 +10383,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9882,7 +10420,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9915,7 +10457,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9948,7 +10494,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9981,7 +10531,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10014,7 +10568,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10047,7 +10605,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10080,7 +10642,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10113,7 +10679,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10146,7 +10716,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10179,7 +10753,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10212,7 +10790,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10245,7 +10827,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10278,7 +10864,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10311,7 +10901,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10344,7 +10938,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10377,7 +10975,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10410,7 +11012,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10443,7 +11049,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10476,7 +11086,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10509,7 +11123,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10542,7 +11160,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10575,7 +11197,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +11234,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10641,7 +11271,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10674,7 +11308,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10707,7 +11345,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10740,7 +11382,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10773,7 +11419,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10806,7 +11456,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10839,7 +11493,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10872,7 +11530,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10905,7 +11567,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10938,7 +11604,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10971,7 +11641,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11004,7 +11678,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11037,7 +11715,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11070,7 +11752,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11103,7 +11789,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11136,7 +11826,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11169,7 +11863,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11202,7 +11900,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11235,7 +11937,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11268,7 +11974,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11301,7 +12011,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11334,7 +12048,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11367,7 +12085,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11400,7 +12122,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11433,7 +12159,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11466,7 +12196,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11499,7 +12233,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11532,7 +12270,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11565,7 +12307,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11598,7 +12344,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11631,7 +12381,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11664,7 +12418,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11697,7 +12455,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11730,7 +12492,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11763,7 +12529,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11796,7 +12566,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11829,7 +12603,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11862,7 +12640,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11895,7 +12677,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11928,7 +12714,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11961,7 +12751,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11994,7 +12788,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12027,7 +12825,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12060,7 +12862,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12093,7 +12899,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12126,7 +12936,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12159,7 +12973,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12192,7 +13010,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12225,7 +13047,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12258,7 +13084,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12291,7 +13121,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12324,7 +13158,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12357,7 +13195,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12390,7 +13232,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12423,7 +13269,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12456,7 +13306,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12489,7 +13343,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12522,7 +13380,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12555,7 +13417,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12588,7 +13454,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12621,7 +13491,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12654,7 +13528,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12687,7 +13565,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12720,7 +13602,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12753,7 +13639,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12786,7 +13676,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12819,7 +13713,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12852,7 +13750,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12885,7 +13787,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12918,7 +13824,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12951,7 +13861,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12984,7 +13898,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13017,7 +13935,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13050,7 +13972,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13083,7 +14009,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13116,7 +14046,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13149,7 +14083,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13182,7 +14120,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13215,7 +14157,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13248,7 +14194,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13281,7 +14231,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13314,7 +14268,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13347,7 +14305,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13380,7 +14342,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13413,7 +14379,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13446,7 +14416,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13479,7 +14453,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13512,7 +14490,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13545,7 +14527,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13578,7 +14564,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13611,7 +14601,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13644,7 +14638,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13677,7 +14675,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13710,7 +14712,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13743,7 +14749,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13776,7 +14786,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13809,7 +14823,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13842,7 +14860,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13875,7 +14897,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13908,7 +14934,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13941,7 +14971,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13974,7 +15008,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14007,7 +15045,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14040,7 +15082,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14073,7 +15119,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14106,7 +15156,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14139,7 +15193,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14172,7 +15230,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14205,7 +15267,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14238,7 +15304,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14271,7 +15341,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14304,7 +15378,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14337,7 +15415,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14370,7 +15452,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14403,7 +15489,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14436,7 +15526,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14469,7 +15563,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14502,7 +15600,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14535,7 +15637,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14568,7 +15674,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14601,7 +15711,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14634,7 +15748,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14667,7 +15785,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14700,7 +15822,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14733,7 +15859,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14766,7 +15896,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14799,7 +15933,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14832,7 +15970,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14865,7 +16007,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14898,7 +16044,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14931,7 +16081,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14964,7 +16118,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14997,7 +16155,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15030,7 +16192,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15063,7 +16229,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15096,7 +16266,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15129,7 +16303,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15162,7 +16340,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15195,7 +16377,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15228,7 +16414,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15261,7 +16451,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15294,7 +16488,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15327,7 +16525,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15360,7 +16562,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15393,7 +16599,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15426,7 +16636,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15459,7 +16673,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15492,7 +16710,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15525,7 +16747,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15558,7 +16784,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15591,7 +16821,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15624,7 +16858,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15657,7 +16895,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15690,7 +16932,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15723,7 +16969,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15756,7 +17006,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15789,7 +17043,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15822,7 +17080,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15855,7 +17117,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15888,7 +17154,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15921,7 +17191,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15954,7 +17228,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15987,7 +17265,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16020,7 +17302,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16053,7 +17339,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16086,7 +17376,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16119,7 +17413,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16152,7 +17450,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16185,7 +17487,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16218,7 +17524,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16251,7 +17561,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16284,7 +17598,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16317,7 +17635,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16350,7 +17672,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16383,7 +17709,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16416,7 +17746,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16449,7 +17783,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16482,7 +17820,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16515,7 +17857,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16548,7 +17894,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16581,7 +17931,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16614,7 +17968,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16647,7 +18005,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16680,7 +18042,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16713,7 +18079,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16746,7 +18116,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16779,7 +18153,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16812,7 +18190,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16845,7 +18227,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16878,7 +18264,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16911,7 +18301,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16944,7 +18338,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16977,7 +18375,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17010,7 +18412,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17043,7 +18449,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17076,7 +18486,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17109,7 +18523,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17142,7 +18560,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17175,7 +18597,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17208,7 +18634,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17241,7 +18671,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17274,7 +18708,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17307,7 +18745,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17340,7 +18782,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17373,7 +18819,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17406,7 +18856,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17439,7 +18893,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17472,7 +18930,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17505,7 +18967,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17538,7 +19004,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17571,7 +19041,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17604,7 +19078,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17637,7 +19115,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17670,7 +19152,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17703,7 +19189,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17736,7 +19226,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17769,7 +19263,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17802,7 +19300,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17835,7 +19337,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17868,7 +19374,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17901,7 +19411,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17934,7 +19448,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17967,7 +19485,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18000,7 +19522,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18033,7 +19559,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18066,7 +19596,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18099,7 +19633,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18132,7 +19670,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18165,7 +19707,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18198,7 +19744,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18231,7 +19781,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18264,7 +19818,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18297,7 +19855,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18330,7 +19892,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18363,7 +19929,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18396,7 +19966,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18429,7 +20003,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18462,7 +20040,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18495,7 +20077,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18528,7 +20114,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18561,7 +20151,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18594,7 +20188,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18627,7 +20225,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18660,7 +20262,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18693,7 +20299,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18726,7 +20336,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18759,7 +20373,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18792,7 +20410,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18825,7 +20447,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18858,7 +20484,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18891,7 +20521,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18924,7 +20558,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18957,7 +20595,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18990,7 +20632,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19023,7 +20669,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19056,7 +20706,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19089,7 +20743,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19122,7 +20780,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19155,7 +20817,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19188,7 +20854,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19221,7 +20891,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19254,7 +20928,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19287,7 +20965,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19320,7 +21002,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19353,7 +21039,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19386,7 +21076,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19419,7 +21113,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19452,7 +21150,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19485,7 +21187,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19518,7 +21224,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19551,7 +21261,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19584,7 +21298,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19617,7 +21335,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19650,7 +21372,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19683,7 +21409,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19716,7 +21446,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19749,7 +21483,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19782,7 +21520,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19815,7 +21557,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19848,7 +21594,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19881,7 +21631,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19914,7 +21668,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19947,7 +21705,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19980,7 +21742,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20013,7 +21779,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20046,7 +21816,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20079,7 +21853,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20112,7 +21890,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20145,7 +21927,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20178,7 +21964,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20211,7 +22001,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20244,7 +22038,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20277,7 +22075,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20310,7 +22112,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20343,7 +22149,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20376,7 +22186,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20409,7 +22223,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20442,7 +22260,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20475,7 +22297,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20508,7 +22334,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20541,7 +22371,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20574,7 +22408,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20607,7 +22445,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20640,7 +22482,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20673,7 +22519,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20706,7 +22556,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20739,7 +22593,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20772,7 +22630,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20805,7 +22667,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20838,7 +22704,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20871,7 +22741,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20904,7 +22778,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20937,7 +22815,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20970,7 +22852,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21003,7 +22889,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21036,7 +22926,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21069,7 +22963,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21102,7 +23000,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21135,7 +23037,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21168,7 +23074,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21201,7 +23111,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21234,7 +23148,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21267,7 +23185,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21300,7 +23222,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21333,7 +23259,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21366,7 +23296,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21399,7 +23333,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21432,7 +23370,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21465,7 +23407,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21498,7 +23444,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21531,7 +23481,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21564,7 +23518,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21597,7 +23555,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21630,7 +23592,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21663,7 +23629,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21696,7 +23666,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21729,7 +23703,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21762,7 +23740,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21795,7 +23777,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21828,7 +23814,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21861,7 +23851,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21894,7 +23888,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21927,7 +23925,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21960,7 +23962,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21993,7 +23999,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22026,7 +24036,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22059,7 +24073,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22092,7 +24110,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22125,7 +24147,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22158,7 +24184,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22191,7 +24221,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22224,7 +24258,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22257,7 +24295,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22290,7 +24332,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22323,7 +24369,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22356,7 +24406,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22389,7 +24443,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22422,7 +24480,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22455,7 +24517,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22488,7 +24554,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22521,7 +24591,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22554,7 +24628,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22587,7 +24665,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22620,7 +24702,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22653,7 +24739,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22686,7 +24776,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22719,7 +24813,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22752,7 +24850,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22785,7 +24887,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22818,7 +24924,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22851,7 +24961,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22884,7 +24998,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22917,7 +25035,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22950,7 +25072,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22983,7 +25109,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23016,7 +25146,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23049,7 +25183,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23082,7 +25220,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23115,7 +25257,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23148,7 +25294,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23181,7 +25331,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23214,7 +25368,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23247,7 +25405,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23280,7 +25442,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23313,7 +25479,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23346,7 +25516,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23379,7 +25553,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23412,7 +25590,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23445,7 +25627,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23478,7 +25664,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23511,7 +25701,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23544,7 +25738,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23577,7 +25775,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23610,7 +25812,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23643,7 +25849,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23676,7 +25886,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23709,7 +25923,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23742,7 +25960,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23775,7 +25997,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23808,7 +26034,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23841,7 +26071,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23874,7 +26108,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23907,7 +26145,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23936,14 +26178,16 @@
         <v>23128.97766314204</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr"/>
       <c r="M691" t="inlineStr"/>
     </row>
     <row r="692">
@@ -24068,7 +26312,7 @@
         <v>27330.54376346776</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24101,7 +26345,7 @@
         <v>26312.54186896471</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24134,7 +26378,7 @@
         <v>25733.90466896471</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24167,7 +26411,7 @@
         <v>25414.9970166736</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24200,7 +26444,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24233,7 +26477,7 @@
         <v>24629.99037266459</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24266,7 +26510,7 @@
         <v>25096.19317266459</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24299,7 +26543,7 @@
         <v>25408.39707266459</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24332,7 +26576,7 @@
         <v>25928.39250833737</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24365,7 +26609,7 @@
         <v>25572.06449302206</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24398,7 +26642,7 @@
         <v>25835.02498812758</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24431,7 +26675,7 @@
         <v>26316.78458812758</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24464,7 +26708,7 @@
         <v>26711.52038812758</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24497,7 +26741,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24530,7 +26774,7 @@
         <v>26550.95378812758</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24563,7 +26807,7 @@
         <v>26775.56288812758</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24596,7 +26840,7 @@
         <v>27192.01888812758</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24629,7 +26873,7 @@
         <v>27867.97428812758</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24662,7 +26906,7 @@
         <v>28127.85448812758</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24695,7 +26939,7 @@
         <v>28646.63888812758</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24728,7 +26972,7 @@
         <v>27982.19948812758</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24761,7 +27005,7 @@
         <v>28485.05868812758</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24794,7 +27038,7 @@
         <v>27876.73798812758</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24827,7 +27071,7 @@
         <v>27558.59318812758</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24860,7 +27104,7 @@
         <v>28071.98078812758</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24893,7 +27137,7 @@
         <v>27891.59858812758</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24926,7 +27170,7 @@
         <v>27751.22958812758</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24959,7 +27203,7 @@
         <v>26878.31713680579</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24992,7 +27236,7 @@
         <v>28274.72073680579</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25025,7 +27269,7 @@
         <v>28563.00053680579</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25058,7 +27302,7 @@
         <v>28301.42443898464</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25091,7 +27335,7 @@
         <v>28509.11883898464</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25124,7 +27368,7 @@
         <v>27976.59022988959</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25190,7 +27434,7 @@
         <v>28525.81522988959</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25223,7 +27467,7 @@
         <v>28785.18322988959</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25256,7 +27500,7 @@
         <v>28845.15871057706</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25289,7 +27533,7 @@
         <v>28611.22991057706</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25322,7 +27566,7 @@
         <v>28691.82471057706</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25355,7 +27599,7 @@
         <v>28407.52471057706</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25388,7 +27632,7 @@
         <v>27824.04943365048</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25421,7 +27665,7 @@
         <v>27773.77773365048</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25454,7 +27698,7 @@
         <v>28200.52163365048</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25487,7 +27731,7 @@
         <v>28314.87023365048</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25520,7 +27764,7 @@
         <v>28398.47223365048</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25553,7 +27797,7 @@
         <v>28458.71083365048</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25586,7 +27830,7 @@
         <v>28610.16313365048</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25619,7 +27863,7 @@
         <v>28534.26598158136</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25652,7 +27896,7 @@
         <v>28369.01297222198</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25685,7 +27929,7 @@
         <v>28256.36017222198</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25718,7 +27962,7 @@
         <v>28126.87497222198</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
